--- a/speedup_aff_reg.xlsx
+++ b/speedup_aff_reg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricciwoo/Downloads/GSoC_Dipy/registration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EABE487-E918-C34B-91DC-3A936FD4237B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C8263A-A6F6-AE4F-8F7C-04A8EB95F8FE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11420" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{50A14C59-320A-354D-AC1D-B4333EB57C32}"/>
+    <workbookView xWindow="14020" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{50A14C59-320A-354D-AC1D-B4333EB57C32}"/>
   </bookViews>
   <sheets>
     <sheet name="speedup_gradient" sheetId="3" r:id="rId1"/>
@@ -46,8 +46,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -93,7 +94,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -102,6 +103,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1029,145 +1033,145 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="48"/>
                 <c:pt idx="1">
-                  <c:v>0.94622472276581859</c:v>
+                  <c:v>0.85449104393459685</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92724730323611659</c:v>
+                  <c:v>0.53313850046340461</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91822282006646616</c:v>
+                  <c:v>0.51139490214400674</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91081169468245149</c:v>
+                  <c:v>0.43885230610739095</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.89279119864594547</c:v>
+                  <c:v>0.44673457703405156</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.90432896497084136</c:v>
+                  <c:v>0.36174104632615356</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.8788624659194183</c:v>
+                  <c:v>0.36108056594091342</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.8991554315822099</c:v>
+                  <c:v>0.30848844264380637</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.89899289864428655</c:v>
+                  <c:v>0.36296978629329407</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.89949229397858066</c:v>
+                  <c:v>0.27182014783031594</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.8880088766452402</c:v>
+                  <c:v>0.27214210729874577</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.89102030892082462</c:v>
+                  <c:v>0.32756889990834825</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.89464960296045015</c:v>
+                  <c:v>0.36561185055972834</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.89334103156274058</c:v>
+                  <c:v>0.31827149275581801</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.89762530940594054</c:v>
+                  <c:v>0.16005914275501251</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.86170963230653086</c:v>
+                  <c:v>0.32486087637577804</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.86343005952380947</c:v>
+                  <c:v>0.20055528834530689</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.8568106026112744</c:v>
+                  <c:v>0.23755953457526979</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.89818111455108363</c:v>
+                  <c:v>0.34082082774726463</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.89537440685158742</c:v>
+                  <c:v>0.33998567718444511</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.89428189781396883</c:v>
+                  <c:v>0.20701466817971673</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.88258334389656468</c:v>
+                  <c:v>0.21663672636858317</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.87779878971255665</c:v>
+                  <c:v>0.16963278660295322</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.86172029702970288</c:v>
+                  <c:v>0.2933209267702615</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.85503241968759203</c:v>
+                  <c:v>0.31016392152232525</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.82892246151648263</c:v>
+                  <c:v>0.2025196749221034</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.83867742712599369</c:v>
+                  <c:v>0.22332551206628809</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.82733667625181195</c:v>
+                  <c:v>0.20333088225808532</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.84304395205230653</c:v>
+                  <c:v>0.1506830718635577</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.83807173808377455</c:v>
+                  <c:v>0.11888575529670527</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.83557747695852524</c:v>
+                  <c:v>0.21022193768672642</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.80808467671738438</c:v>
+                  <c:v>0.15888501461170368</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.79037164846641073</c:v>
+                  <c:v>0.19833845487880686</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.81397007248071074</c:v>
+                  <c:v>1.8425999532382515E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.79854803192953472</c:v>
+                  <c:v>1.8076887787870446E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.7930091912392796</c:v>
+                  <c:v>1.7951503969203084E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.79838321293429648</c:v>
+                  <c:v>1.8073156748079351E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.78926069509623875</c:v>
+                  <c:v>1.7866648529778506E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.79193585077343032</c:v>
+                  <c:v>1.7927206551410374E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.80829105768449394</c:v>
+                  <c:v>1.829744256509676E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.79854803192953461</c:v>
+                  <c:v>1.8076887787870448E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.78833133307669667</c:v>
+                  <c:v>1.7845610380199726E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.7904254836073018</c:v>
+                  <c:v>1.7893016074834261E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.78942176870748304</c:v>
+                  <c:v>1.78702947845805E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.7778162563117208</c:v>
+                  <c:v>1.7607578533446536E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.7359292259885214</c:v>
+                  <c:v>1.6659373645770577E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.74694258496395471</c:v>
+                  <c:v>1.6908685204256781E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2271,8 +2275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD61747-5641-6A4F-8443-5DC6BB716242}">
   <dimension ref="B2:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2317,8 +2321,8 @@
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="3">
-        <v>69.626999999999995</v>
+      <c r="I3" s="4">
+        <v>0.15761600000000001</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -2349,16 +2353,16 @@
         <f>G4/$B4</f>
         <v>0.97169862864011358</v>
       </c>
-      <c r="I4" s="3">
-        <v>36.792000000000002</v>
+      <c r="I4" s="4">
+        <v>9.2228000000000004E-2</v>
       </c>
       <c r="J4" s="3">
         <f>I$3/I4</f>
-        <v>1.8924494455316372</v>
+        <v>1.7089820878691937</v>
       </c>
       <c r="K4" s="3">
         <f>J4/$B4</f>
-        <v>0.94622472276581859</v>
+        <v>0.85449104393459685</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
@@ -2387,16 +2391,16 @@
         <f t="shared" ref="H5:H50" si="3">G5/$B5</f>
         <v>0.96219652397376076</v>
       </c>
-      <c r="I5" s="3">
-        <v>25.03</v>
+      <c r="I5" s="4">
+        <v>9.8545999999999995E-2</v>
       </c>
       <c r="J5" s="3">
         <f t="shared" ref="J5:J51" si="4">I$3/I5</f>
-        <v>2.7817419097083498</v>
+        <v>1.5994155013902138</v>
       </c>
       <c r="K5" s="3">
         <f t="shared" ref="K5:K50" si="5">J5/$B5</f>
-        <v>0.92724730323611659</v>
+        <v>0.53313850046340461</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
@@ -2425,16 +2429,16 @@
         <f t="shared" si="3"/>
         <v>0.92413613925694982</v>
       </c>
-      <c r="I6" s="3">
-        <v>18.957000000000001</v>
+      <c r="I6" s="4">
+        <v>7.7051999999999995E-2</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" si="4"/>
-        <v>3.6728912802658646</v>
+        <v>2.0455796085760269</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" si="5"/>
-        <v>0.91822282006646616</v>
+        <v>0.51139490214400674</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
@@ -2463,16 +2467,16 @@
         <f t="shared" si="3"/>
         <v>0.91457221829401547</v>
       </c>
-      <c r="I7" s="3">
-        <v>15.289</v>
+      <c r="I7" s="4">
+        <v>7.1831000000000006E-2</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" si="4"/>
-        <v>4.5540584734122573</v>
+        <v>2.1942615305369548</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" si="5"/>
-        <v>0.91081169468245149</v>
+        <v>0.43885230610739095</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
@@ -2501,16 +2505,16 @@
         <f t="shared" si="3"/>
         <v>0.9348471707535021</v>
       </c>
-      <c r="I8" s="3">
-        <v>12.997999999999999</v>
+      <c r="I8" s="4">
+        <v>5.8803000000000001E-2</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" si="4"/>
-        <v>5.3567471918756731</v>
+        <v>2.6804074622043093</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" si="5"/>
-        <v>0.89279119864594547</v>
+        <v>0.44673457703405156</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
@@ -2539,16 +2543,16 @@
         <f t="shared" si="3"/>
         <v>0.91921645648129002</v>
       </c>
-      <c r="I9" s="3">
-        <v>10.999000000000001</v>
+      <c r="I9" s="4">
+        <v>6.2245000000000002E-2</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" si="4"/>
-        <v>6.3303027547958894</v>
+        <v>2.532187324283075</v>
       </c>
       <c r="K9" s="3">
         <f t="shared" si="5"/>
-        <v>0.90432896497084136</v>
+        <v>0.36174104632615356</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
@@ -2577,16 +2581,16 @@
         <f t="shared" si="3"/>
         <v>0.92524191031110181</v>
       </c>
-      <c r="I10" s="3">
-        <v>9.9030000000000005</v>
+      <c r="I10" s="4">
+        <v>5.4564000000000001E-2</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="4"/>
-        <v>7.0308997273553464</v>
+        <v>2.8886445275273074</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" si="5"/>
-        <v>0.8788624659194183</v>
+        <v>0.36108056594091342</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
@@ -2615,16 +2619,16 @@
         <f t="shared" si="3"/>
         <v>0.91954914430484458</v>
       </c>
-      <c r="I11" s="3">
-        <v>8.6039999999999992</v>
+      <c r="I11" s="4">
+        <v>5.6770000000000001E-2</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" si="4"/>
-        <v>8.0923988842398895</v>
+        <v>2.7763959837942576</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" si="5"/>
-        <v>0.8991554315822099</v>
+        <v>0.30848844264380637</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
@@ -2653,16 +2657,16 @@
         <f t="shared" si="3"/>
         <v>0.91805394244418648</v>
       </c>
-      <c r="I12" s="3">
-        <v>7.7450000000000001</v>
+      <c r="I12" s="4">
+        <v>4.3423999999999997E-2</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="4"/>
-        <v>8.989928986442866</v>
+        <v>3.6296978629329408</v>
       </c>
       <c r="K12" s="3">
         <f t="shared" si="5"/>
-        <v>0.89899289864428655</v>
+        <v>0.36296978629329407</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
@@ -2691,16 +2695,16 @@
         <f t="shared" si="3"/>
         <v>0.91877720234020854</v>
       </c>
-      <c r="I13" s="3">
-        <v>7.0369999999999999</v>
+      <c r="I13" s="4">
+        <v>5.2713999999999997E-2</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" si="4"/>
-        <v>9.8944152337643878</v>
+        <v>2.9900216261334753</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" si="5"/>
-        <v>0.89949229397858066</v>
+        <v>0.27182014783031594</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
@@ -2729,16 +2733,16 @@
         <f t="shared" si="3"/>
         <v>0.91812503226472575</v>
       </c>
-      <c r="I14" s="3">
-        <v>6.5339999999999998</v>
+      <c r="I14" s="4">
+        <v>4.8264000000000001E-2</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="4"/>
-        <v>10.656106519742883</v>
+        <v>3.2657052875849493</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="5"/>
-        <v>0.8880088766452402</v>
+        <v>0.27214210729874577</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
@@ -2767,16 +2771,16 @@
         <f t="shared" si="3"/>
         <v>0.91755662178197384</v>
       </c>
-      <c r="I15" s="3">
-        <v>6.0110000000000001</v>
+      <c r="I15" s="4">
+        <v>3.7012999999999997E-2</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="4"/>
-        <v>11.58326401597072</v>
+        <v>4.2583956988085276</v>
       </c>
       <c r="K15" s="3">
         <f t="shared" si="5"/>
-        <v>0.89102030892082462</v>
+        <v>0.32756889990834825</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
@@ -2805,16 +2809,16 @@
         <f t="shared" si="3"/>
         <v>0.9177223354575712</v>
       </c>
-      <c r="I16" s="3">
-        <v>5.5590000000000002</v>
+      <c r="I16" s="4">
+        <v>3.0793000000000001E-2</v>
       </c>
       <c r="J16" s="3">
         <f t="shared" si="4"/>
-        <v>12.525094441446303</v>
+        <v>5.1185659078361967</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" si="5"/>
-        <v>0.89464960296045015</v>
+        <v>0.36561185055972834</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
@@ -2843,16 +2847,16 @@
         <f t="shared" si="3"/>
         <v>0.916988914668729</v>
       </c>
-      <c r="I17" s="3">
-        <v>5.1959999999999997</v>
+      <c r="I17" s="4">
+        <v>3.3015000000000003E-2</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="4"/>
-        <v>13.400115473441108</v>
+        <v>4.7740723913372705</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" si="5"/>
-        <v>0.89334103156274058</v>
+        <v>0.31827149275581801</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
@@ -2881,16 +2885,16 @@
         <f t="shared" si="3"/>
         <v>0.91826724494010747</v>
       </c>
-      <c r="I18" s="3">
-        <v>4.8479999999999999</v>
+      <c r="I18" s="4">
+        <v>6.1545999999999997E-2</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" si="4"/>
-        <v>14.362004950495049</v>
+        <v>2.5609462840802002</v>
       </c>
       <c r="K18" s="3">
         <f t="shared" si="5"/>
-        <v>0.89762530940594054</v>
+        <v>0.16005914275501251</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
@@ -2919,16 +2923,16 @@
         <f t="shared" si="3"/>
         <v>0.91669351201597826</v>
       </c>
-      <c r="I19" s="3">
-        <v>4.7530000000000001</v>
+      <c r="I19" s="4">
+        <v>2.8539999999999999E-2</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="4"/>
-        <v>14.649063749211024</v>
+        <v>5.522634898388227</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" si="5"/>
-        <v>0.86170963230653086</v>
+        <v>0.32486087637577804</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
@@ -2957,16 +2961,16 @@
         <f t="shared" si="3"/>
         <v>0.91869414742497035</v>
       </c>
-      <c r="I20" s="3">
-        <v>4.4800000000000004</v>
+      <c r="I20" s="4">
+        <v>4.3660999999999998E-2</v>
       </c>
       <c r="J20" s="3">
         <f t="shared" si="4"/>
-        <v>15.54174107142857</v>
+        <v>3.6099951902155243</v>
       </c>
       <c r="K20" s="3">
         <f t="shared" si="5"/>
-        <v>0.86343005952380947</v>
+        <v>0.20055528834530689</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
@@ -2995,16 +2999,16 @@
         <f t="shared" si="3"/>
         <v>0.87257294950263076</v>
       </c>
-      <c r="I21" s="3">
-        <v>4.2770000000000001</v>
+      <c r="I21" s="4">
+        <v>3.492E-2</v>
       </c>
       <c r="J21" s="3">
         <f t="shared" si="4"/>
-        <v>16.279401449614213</v>
+        <v>4.513631156930126</v>
       </c>
       <c r="K21" s="3">
         <f t="shared" si="5"/>
-        <v>0.8568106026112744</v>
+        <v>0.23755953457526979</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
@@ -3033,16 +3037,16 @@
         <f t="shared" si="3"/>
         <v>0.89282128514056214</v>
       </c>
-      <c r="I22" s="3">
-        <v>3.8759999999999999</v>
+      <c r="I22" s="4">
+        <v>2.3123000000000001E-2</v>
       </c>
       <c r="J22" s="3">
         <f t="shared" si="4"/>
-        <v>17.963622291021672</v>
+        <v>6.8164165549452926</v>
       </c>
       <c r="K22" s="3">
         <f t="shared" si="5"/>
-        <v>0.89818111455108363</v>
+        <v>0.34082082774726463</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
@@ -3071,16 +3075,16 @@
         <f t="shared" si="3"/>
         <v>0.89453896161052227</v>
       </c>
-      <c r="I23" s="3">
-        <v>3.7029999999999998</v>
+      <c r="I23" s="4">
+        <v>2.2075999999999998E-2</v>
       </c>
       <c r="J23" s="3">
         <f t="shared" si="4"/>
-        <v>18.802862543883336</v>
+        <v>7.1396992208733474</v>
       </c>
       <c r="K23" s="3">
         <f t="shared" si="5"/>
-        <v>0.89537440685158742</v>
+        <v>0.33998567718444511</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
@@ -3109,16 +3113,16 @@
         <f t="shared" si="3"/>
         <v>0.90832482124616964</v>
       </c>
-      <c r="I24" s="3">
-        <v>3.5390000000000001</v>
+      <c r="I24" s="4">
+        <v>3.4608E-2</v>
       </c>
       <c r="J24" s="3">
         <f t="shared" si="4"/>
-        <v>19.674201751907315</v>
+        <v>4.5543226999537678</v>
       </c>
       <c r="K24" s="3">
         <f t="shared" si="5"/>
-        <v>0.89428189781396883</v>
+        <v>0.20701466817971673</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
@@ -3147,16 +3151,16 @@
         <f t="shared" si="3"/>
         <v>0.89601491259005495</v>
       </c>
-      <c r="I25" s="3">
-        <v>3.43</v>
+      <c r="I25" s="4">
+        <v>3.1633000000000001E-2</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" si="4"/>
-        <v>20.299416909620987</v>
+        <v>4.9826447064774131</v>
       </c>
       <c r="K25" s="3">
         <f t="shared" si="5"/>
-        <v>0.88258334389656468</v>
+        <v>0.21663672636858317</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
@@ -3185,16 +3189,16 @@
         <f t="shared" si="3"/>
         <v>0.88987291103772648</v>
       </c>
-      <c r="I26" s="3">
-        <v>3.3050000000000002</v>
+      <c r="I26" s="4">
+        <v>3.8714999999999999E-2</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" si="4"/>
-        <v>21.06717095310136</v>
+        <v>4.0711868784708773</v>
       </c>
       <c r="K26" s="3">
         <f t="shared" si="5"/>
-        <v>0.87779878971255665</v>
+        <v>0.16963278660295322</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
@@ -3223,16 +3227,16 @@
         <f t="shared" si="3"/>
         <v>0.88786271450858034</v>
       </c>
-      <c r="I27" s="3">
-        <v>3.2320000000000002</v>
+      <c r="I27" s="4">
+        <v>2.1493999999999999E-2</v>
       </c>
       <c r="J27" s="3">
         <f t="shared" si="4"/>
-        <v>21.543007425742573</v>
+        <v>7.3330231692565375</v>
       </c>
       <c r="K27" s="3">
         <f t="shared" si="5"/>
-        <v>0.86172029702970288</v>
+        <v>0.2933209267702615</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
@@ -3261,16 +3265,16 @@
         <f t="shared" si="3"/>
         <v>0.86205225146624009</v>
       </c>
-      <c r="I28" s="3">
-        <v>3.1320000000000001</v>
+      <c r="I28" s="4">
+        <v>1.9545E-2</v>
       </c>
       <c r="J28" s="3">
         <f t="shared" si="4"/>
-        <v>22.230842911877392</v>
+        <v>8.0642619595804561</v>
       </c>
       <c r="K28" s="3">
         <f t="shared" si="5"/>
-        <v>0.85503241968759203</v>
+        <v>0.31016392152232525</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
@@ -3299,16 +3303,16 @@
         <f t="shared" si="3"/>
         <v>0.87739421072754398</v>
       </c>
-      <c r="I29" s="3">
-        <v>3.1110000000000002</v>
+      <c r="I29" s="4">
+        <v>2.8825E-2</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" si="4"/>
-        <v>22.380906460945031</v>
+        <v>5.4680312228967916</v>
       </c>
       <c r="K29" s="3">
         <f t="shared" si="5"/>
-        <v>0.82892246151648263</v>
+        <v>0.2025196749221034</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
@@ -3337,16 +3341,16 @@
         <f t="shared" si="3"/>
         <v>0.87369817252898407</v>
       </c>
-      <c r="I30" s="3">
-        <v>2.9649999999999999</v>
+      <c r="I30" s="4">
+        <v>2.5205999999999999E-2</v>
       </c>
       <c r="J30" s="3">
         <f t="shared" si="4"/>
-        <v>23.482967959527823</v>
+        <v>6.2531143378560667</v>
       </c>
       <c r="K30" s="3">
         <f t="shared" si="5"/>
-        <v>0.83867742712599369</v>
+        <v>0.22332551206628809</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
@@ -3375,16 +3379,16 @@
         <f t="shared" si="3"/>
         <v>0.86590308799006777</v>
       </c>
-      <c r="I31" s="3">
-        <v>2.9020000000000001</v>
+      <c r="I31" s="4">
+        <v>2.673E-2</v>
       </c>
       <c r="J31" s="3">
         <f t="shared" si="4"/>
-        <v>23.992763611302546</v>
+        <v>5.8965955854844747</v>
       </c>
       <c r="K31" s="3">
         <f t="shared" si="5"/>
-        <v>0.82733667625181195</v>
+        <v>0.20333088225808532</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
@@ -3413,16 +3417,16 @@
         <f t="shared" si="3"/>
         <v>0.86105059307673681</v>
       </c>
-      <c r="I32" s="3">
-        <v>2.7530000000000001</v>
+      <c r="I32" s="4">
+        <v>3.4867000000000002E-2</v>
       </c>
       <c r="J32" s="3">
         <f t="shared" si="4"/>
-        <v>25.291318561569195</v>
+        <v>4.520492155906731</v>
       </c>
       <c r="K32" s="3">
         <f t="shared" si="5"/>
-        <v>0.84304395205230653</v>
+        <v>0.1506830718635577</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
@@ -3451,16 +3455,16 @@
         <f t="shared" si="3"/>
         <v>0.85564455990955235</v>
       </c>
-      <c r="I33" s="3">
-        <v>2.68</v>
+      <c r="I33" s="4">
+        <v>4.2766999999999999E-2</v>
       </c>
       <c r="J33" s="3">
         <f t="shared" si="4"/>
-        <v>25.980223880597013</v>
+        <v>3.6854584141978632</v>
       </c>
       <c r="K33" s="3">
         <f t="shared" si="5"/>
-        <v>0.83807173808377455</v>
+        <v>0.11888575529670527</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
@@ -3489,16 +3493,16 @@
         <f t="shared" si="3"/>
         <v>0.8104721108275611</v>
       </c>
-      <c r="I34" s="3">
-        <v>2.6040000000000001</v>
+      <c r="I34" s="4">
+        <v>2.3429999999999999E-2</v>
       </c>
       <c r="J34" s="3">
         <f t="shared" si="4"/>
-        <v>26.738479262672808</v>
+        <v>6.7271020059752455</v>
       </c>
       <c r="K34" s="3">
         <f t="shared" si="5"/>
-        <v>0.83557747695852524</v>
+        <v>0.21022193768672642</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
@@ -3527,16 +3531,16 @@
         <f t="shared" si="3"/>
         <v>0.84872345502266755</v>
       </c>
-      <c r="I35" s="3">
-        <v>2.6110000000000002</v>
+      <c r="I35" s="4">
+        <v>3.0061000000000001E-2</v>
       </c>
       <c r="J35" s="3">
         <f t="shared" si="4"/>
-        <v>26.666794331673685</v>
+        <v>5.2432054821862213</v>
       </c>
       <c r="K35" s="3">
         <f t="shared" si="5"/>
-        <v>0.80808467671738438</v>
+        <v>0.15888501461170368</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
@@ -3565,16 +3569,16 @@
         <f t="shared" si="3"/>
         <v>0.82734398623031669</v>
       </c>
-      <c r="I36" s="3">
-        <v>2.5910000000000002</v>
+      <c r="I36" s="4">
+        <v>2.3373000000000001E-2</v>
       </c>
       <c r="J36" s="3">
         <f t="shared" si="4"/>
-        <v>26.872636047857966</v>
+        <v>6.7435074658794329</v>
       </c>
       <c r="K36" s="3">
         <f t="shared" si="5"/>
-        <v>0.79037164846641073</v>
+        <v>0.19833845487880686</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
@@ -3603,16 +3607,16 @@
         <f t="shared" si="3"/>
         <v>0.81958525345622124</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="4">
         <v>2.444</v>
       </c>
       <c r="J37" s="3">
         <f t="shared" si="4"/>
-        <v>28.488952536824875</v>
+        <v>6.4490998363338797E-2</v>
       </c>
       <c r="K37" s="3">
         <f t="shared" si="5"/>
-        <v>0.81397007248071074</v>
+        <v>1.8425999532382515E-3</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
@@ -3641,16 +3645,16 @@
         <f t="shared" si="3"/>
         <v>0.83239726668538794</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="4">
         <v>2.4220000000000002</v>
       </c>
       <c r="J38" s="3">
         <f t="shared" si="4"/>
-        <v>28.74772914946325</v>
+        <v>6.5076796036333609E-2</v>
       </c>
       <c r="K38" s="3">
         <f t="shared" si="5"/>
-        <v>0.79854803192953472</v>
+        <v>1.8076887787870446E-3</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
@@ -3679,16 +3683,16 @@
         <f t="shared" si="3"/>
         <v>0.81851966909438167</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="4">
         <v>2.3730000000000002</v>
       </c>
       <c r="J39" s="3">
         <f t="shared" si="4"/>
-        <v>29.341340075853346</v>
+        <v>6.6420564686051412E-2</v>
       </c>
       <c r="K39" s="3">
         <f t="shared" si="5"/>
-        <v>0.7930091912392796</v>
+        <v>1.7951503969203084E-3</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
@@ -3717,16 +3721,16 @@
         <f t="shared" si="3"/>
         <v>0.82326528722862558</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="4">
         <v>2.2949999999999999</v>
       </c>
       <c r="J40" s="3">
         <f t="shared" si="4"/>
-        <v>30.338562091503267</v>
+        <v>6.8677995642701536E-2</v>
       </c>
       <c r="K40" s="3">
         <f t="shared" si="5"/>
-        <v>0.79838321293429648</v>
+        <v>1.8073156748079351E-3</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
@@ -3755,16 +3759,16 @@
         <f t="shared" si="3"/>
         <v>0.82129786767337409</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="4">
         <v>2.262</v>
       </c>
       <c r="J41" s="3">
         <f t="shared" si="4"/>
-        <v>30.781167108753312</v>
+        <v>6.967992926613617E-2</v>
       </c>
       <c r="K41" s="3">
         <f t="shared" si="5"/>
-        <v>0.78926069509623875</v>
+        <v>1.7866648529778506E-3</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.2">
@@ -3793,16 +3797,16 @@
         <f t="shared" si="3"/>
         <v>0.78348017621145372</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="4">
         <v>2.198</v>
       </c>
       <c r="J42" s="3">
         <f t="shared" si="4"/>
-        <v>31.677434030937214</v>
+        <v>7.1708826205641493E-2</v>
       </c>
       <c r="K42" s="3">
         <f t="shared" si="5"/>
-        <v>0.79193585077343032</v>
+        <v>1.7927206551410374E-3</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.2">
@@ -3831,16 +3835,16 @@
         <f t="shared" si="3"/>
         <v>0.82703620172522041</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="4">
         <v>2.101</v>
       </c>
       <c r="J43" s="3">
         <f t="shared" si="4"/>
-        <v>33.139933365064252</v>
+        <v>7.5019514516896715E-2</v>
       </c>
       <c r="K43" s="3">
         <f t="shared" si="5"/>
-        <v>0.80829105768449394</v>
+        <v>1.829744256509676E-3</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
@@ -3869,16 +3873,16 @@
         <f t="shared" si="3"/>
         <v>0.81945308360402691</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="4">
         <v>2.0760000000000001</v>
       </c>
       <c r="J44" s="3">
         <f t="shared" si="4"/>
-        <v>33.539017341040456</v>
+        <v>7.5922928709055884E-2</v>
       </c>
       <c r="K44" s="3">
         <f t="shared" si="5"/>
-        <v>0.79854803192953461</v>
+        <v>1.8076887787870448E-3</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.2">
@@ -3907,16 +3911,16 @@
         <f t="shared" si="3"/>
         <v>0.80663998276507198</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="4">
         <v>2.0539999999999998</v>
       </c>
       <c r="J45" s="3">
         <f t="shared" si="4"/>
-        <v>33.898247322297955</v>
+        <v>7.6736124634858821E-2</v>
       </c>
       <c r="K45" s="3">
         <f t="shared" si="5"/>
-        <v>0.78833133307669667</v>
+        <v>1.7845610380199726E-3</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.2">
@@ -3945,16 +3949,16 @@
         <f t="shared" si="3"/>
         <v>0.81781395134961132</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I46" s="4">
         <v>2.0019999999999998</v>
       </c>
       <c r="J46" s="3">
         <f t="shared" si="4"/>
-        <v>34.778721278721278</v>
+        <v>7.8729270729270745E-2</v>
       </c>
       <c r="K46" s="3">
         <f t="shared" si="5"/>
-        <v>0.7904254836073018</v>
+        <v>1.7893016074834261E-3</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.2">
@@ -3983,16 +3987,16 @@
         <f t="shared" si="3"/>
         <v>0.81071225071225073</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="4">
         <v>1.96</v>
       </c>
       <c r="J47" s="3">
         <f t="shared" si="4"/>
-        <v>35.523979591836735</v>
+        <v>8.0416326530612245E-2</v>
       </c>
       <c r="K47" s="3">
         <f t="shared" si="5"/>
-        <v>0.78942176870748304</v>
+        <v>1.78702947845805E-3</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.2">
@@ -4021,16 +4025,16 @@
         <f t="shared" si="3"/>
         <v>0.78543511382957587</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="4">
         <v>1.946</v>
       </c>
       <c r="J48" s="3">
         <f t="shared" si="4"/>
-        <v>35.779547790339159</v>
+        <v>8.0994861253854064E-2</v>
       </c>
       <c r="K48" s="3">
         <f t="shared" si="5"/>
-        <v>0.7778162563117208</v>
+        <v>1.7607578533446536E-3</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.2">
@@ -4059,16 +4063,16 @@
         <f t="shared" si="3"/>
         <v>0.78466408567993551</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="4">
         <v>2.0129999999999999</v>
       </c>
       <c r="J49" s="3">
         <f t="shared" si="4"/>
-        <v>34.588673621460508</v>
+        <v>7.8299056135121711E-2</v>
       </c>
       <c r="K49" s="3">
         <f t="shared" si="5"/>
-        <v>0.7359292259885214</v>
+        <v>1.6659373645770577E-3</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.2">
@@ -4097,16 +4101,16 @@
         <f t="shared" si="3"/>
         <v>0.76238854595336081</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I50" s="4">
         <v>1.9419999999999999</v>
       </c>
       <c r="J50" s="3">
         <f t="shared" si="4"/>
-        <v>35.853244078269825</v>
+        <v>8.116168898043255E-2</v>
       </c>
       <c r="K50" s="3">
         <f t="shared" si="5"/>
-        <v>0.74694258496395471</v>
+        <v>1.6908685204256781E-3</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.2">
@@ -4129,12 +4133,12 @@
         <v>36.783867631851088</v>
       </c>
       <c r="H51" s="3"/>
-      <c r="I51" s="3">
-        <v>1.9179999999999999</v>
+      <c r="I51" s="4">
+        <v>3.8796999999999998E-2</v>
       </c>
       <c r="J51" s="3">
         <f t="shared" si="4"/>
-        <v>36.301876955161624</v>
+        <v>4.0625821584143109</v>
       </c>
       <c r="K51" s="3"/>
     </row>

--- a/speedup_aff_reg.xlsx
+++ b/speedup_aff_reg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricciwoo/Downloads/GSoC_Dipy/registration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C8263A-A6F6-AE4F-8F7C-04A8EB95F8FE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AA8E81-160F-F746-B260-E45B4CD594DF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14020" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{50A14C59-320A-354D-AC1D-B4333EB57C32}"/>
+    <workbookView xWindow="11420" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{50A14C59-320A-354D-AC1D-B4333EB57C32}"/>
   </bookViews>
   <sheets>
     <sheet name="speedup_gradient" sheetId="3" r:id="rId1"/>
@@ -48,7 +48,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -105,7 +105,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1132,7 +1132,7 @@
                   <c:v>0.19833845487880686</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.8425999532382515E-3</c:v>
+                  <c:v>0.16633968476763883</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1.8076887787870446E-3</c:v>
@@ -2276,7 +2276,7 @@
   <dimension ref="B2:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3608,15 +3608,15 @@
         <v>0.81958525345622124</v>
       </c>
       <c r="I37" s="4">
-        <v>2.444</v>
+        <v>2.7073E-2</v>
       </c>
       <c r="J37" s="3">
         <f t="shared" si="4"/>
-        <v>6.4490998363338797E-2</v>
+        <v>5.821888966867359</v>
       </c>
       <c r="K37" s="3">
         <f t="shared" si="5"/>
-        <v>1.8425999532382515E-3</v>
+        <v>0.16633968476763883</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">

--- a/speedup_aff_reg.xlsx
+++ b/speedup_aff_reg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricciwoo/Downloads/GSoC_Dipy/registration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AA8E81-160F-F746-B260-E45B4CD594DF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54DC841-7569-C34E-9985-1238DEB1E585}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11420" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{50A14C59-320A-354D-AC1D-B4333EB57C32}"/>
   </bookViews>
@@ -1135,7 +1135,7 @@
                   <c:v>0.16633968476763883</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.8076887787870446E-3</c:v>
+                  <c:v>0.17607971937350583</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1.7951503969203084E-3</c:v>
@@ -2276,7 +2276,7 @@
   <dimension ref="B2:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3646,15 +3646,15 @@
         <v>0.83239726668538794</v>
       </c>
       <c r="I38" s="4">
-        <v>2.4220000000000002</v>
+        <v>2.4865000000000002E-2</v>
       </c>
       <c r="J38" s="3">
         <f t="shared" si="4"/>
-        <v>6.5076796036333609E-2</v>
+        <v>6.3388698974462097</v>
       </c>
       <c r="K38" s="3">
         <f t="shared" si="5"/>
-        <v>1.8076887787870446E-3</v>
+        <v>0.17607971937350583</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">

--- a/speedup_aff_reg.xlsx
+++ b/speedup_aff_reg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricciwoo/Downloads/GSoC_Dipy/registration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54DC841-7569-C34E-9985-1238DEB1E585}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E41B7B-38AF-8F41-BB42-E08E9CF4BE8D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11420" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{50A14C59-320A-354D-AC1D-B4333EB57C32}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{50A14C59-320A-354D-AC1D-B4333EB57C32}"/>
   </bookViews>
   <sheets>
     <sheet name="speedup_gradient" sheetId="3" r:id="rId1"/>
@@ -361,145 +361,145 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="48"/>
                 <c:pt idx="1">
-                  <c:v>0.91720152369025243</c:v>
+                  <c:v>0.66232999145099869</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93670397015720752</c:v>
+                  <c:v>0.51496611587976349</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93006243716598758</c:v>
+                  <c:v>0.43064468857064897</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91334112756560137</c:v>
+                  <c:v>0.3239117834304121</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.89554196917590101</c:v>
+                  <c:v>0.33214462489428292</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.90806824492748006</c:v>
+                  <c:v>0.3952205498732792</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.88648628202541857</c:v>
+                  <c:v>0.40697407881415831</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.90168528158347983</c:v>
+                  <c:v>0.30059238801679639</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.90417952674897129</c:v>
+                  <c:v>0.36330384738356603</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.90727143686689449</c:v>
+                  <c:v>0.38575256649345474</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.9050175059211204</c:v>
+                  <c:v>0.2704069653067312</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.87288324973928588</c:v>
+                  <c:v>0.26023335562456673</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.89985153710292565</c:v>
+                  <c:v>0.26229255921603389</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.90627739108017535</c:v>
+                  <c:v>0.20628373635417424</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.87033323430382248</c:v>
+                  <c:v>0.39850179560077814</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.87475116950333442</c:v>
+                  <c:v>0.28742955240693835</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.89444826094700147</c:v>
+                  <c:v>0.27142233815206557</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.87172524951955854</c:v>
+                  <c:v>0.35634928267678018</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.89428898499109644</c:v>
+                  <c:v>0.28482336820293441</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.87462059013783156</c:v>
+                  <c:v>0.24373516373516374</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.85841086123116739</c:v>
+                  <c:v>0.24282124194366411</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.85940765911674466</c:v>
+                  <c:v>0.17274146143711364</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.8636620479559749</c:v>
+                  <c:v>0.18578055650020495</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.84455255255255257</c:v>
+                  <c:v>0.21283551337683015</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.82823654140652603</c:v>
+                  <c:v>0.19114586136979422</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.83811941970937776</c:v>
+                  <c:v>0.17287601984721057</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.83340050258404053</c:v>
+                  <c:v>0.23884821919036783</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.83429052851413243</c:v>
+                  <c:v>0.27718257453050499</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.81716643421664337</c:v>
+                  <c:v>0.21227224609253381</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.82654236809931336</c:v>
+                  <c:v>0.23198150071250567</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.81800307148175722</c:v>
+                  <c:v>0.10198508434334731</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.82071485268711764</c:v>
+                  <c:v>0.33100292854202107</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.78597938605316697</c:v>
+                  <c:v>0.20250692076467025</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.80449682476114204</c:v>
+                  <c:v>0.20560813052263338</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.8124075614716213</c:v>
+                  <c:v>0.19905636138556046</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.80348551511342203</c:v>
+                  <c:v>0.17810835890019311</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.77513064185390157</c:v>
+                  <c:v>0.18260670199294191</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.79982026255318184</c:v>
+                  <c:v>0.16194912081668181</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.78225411659991095</c:v>
+                  <c:v>0.34586850649350653</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.79983846013833271</c:v>
+                  <c:v>0.21149627247188224</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.77286417798883178</c:v>
+                  <c:v>0.12284146010989454</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.78648053066657708</c:v>
+                  <c:v>0.10510471066975238</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.74985068896378138</c:v>
+                  <c:v>0.10998657787414177</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.75772173725616987</c:v>
+                  <c:v>0.10334073023148654</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.73518832214484386</c:v>
+                  <c:v>0.10711448739090217</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.69192237290137193</c:v>
+                  <c:v>0.10450615501300778</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.61622668629925681</c:v>
+                  <c:v>8.1594629165804969E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -697,145 +697,145 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="48"/>
                 <c:pt idx="1">
-                  <c:v>0.97169862864011358</c:v>
+                  <c:v>0.74836908363125254</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96219652397376076</c:v>
+                  <c:v>0.61716670603984569</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.92413613925694982</c:v>
+                  <c:v>0.50548738958144135</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91457221829401547</c:v>
+                  <c:v>0.44450872297465915</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.9348471707535021</c:v>
+                  <c:v>0.48601499208723387</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.91921645648129002</c:v>
+                  <c:v>0.43930432365048472</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92524191031110181</c:v>
+                  <c:v>0.44173279826855438</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.91954914430484458</c:v>
+                  <c:v>0.36751617326258174</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.91805394244418648</c:v>
+                  <c:v>0.36647339380903399</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.91877720234020854</c:v>
+                  <c:v>0.34453805155366113</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.91812503226472575</c:v>
+                  <c:v>0.32372894237695871</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.91755662178197384</c:v>
+                  <c:v>0.32934015988381865</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.9177223354575712</c:v>
+                  <c:v>0.33945419832780666</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.916988914668729</c:v>
+                  <c:v>0.31101534163511829</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.91826724494010747</c:v>
+                  <c:v>0.32613218727529364</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.91669351201597826</c:v>
+                  <c:v>0.33821199117595274</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.91869414742497035</c:v>
+                  <c:v>0.320825187237401</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.87257294950263076</c:v>
+                  <c:v>0.29831260438695451</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.89282128514056214</c:v>
+                  <c:v>0.3989716961922215</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.89453896161052227</c:v>
+                  <c:v>0.40995817457876416</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.90832482124616964</c:v>
+                  <c:v>0.2811901734485639</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.89601491259005495</c:v>
+                  <c:v>0.37210243048302</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.88987291103772648</c:v>
+                  <c:v>0.3756825886214778</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.88786271450858034</c:v>
+                  <c:v>0.25565631524008348</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.86205225146624009</c:v>
+                  <c:v>0.29150400504647755</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.87739421072754398</c:v>
+                  <c:v>0.26253941072507697</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.87369817252898407</c:v>
+                  <c:v>0.27995193516676953</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.86590308799006777</c:v>
+                  <c:v>0.24705204440342354</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.86105059307673681</c:v>
+                  <c:v>0.28058455413784711</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.85564455990955235</c:v>
+                  <c:v>0.25844307617630613</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.8104721108275611</c:v>
+                  <c:v>0.28185273200147304</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.84872345502266755</c:v>
+                  <c:v>0.15297908488158926</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.82734398623031669</c:v>
+                  <c:v>0.19972946028652339</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.81958525345622124</c:v>
+                  <c:v>0.13873272346210491</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.83239726668538794</c:v>
+                  <c:v>0.19857847668158526</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.81851966909438167</c:v>
+                  <c:v>0.20916109252470735</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.82326528722862558</c:v>
+                  <c:v>0.14473093276052085</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.82129786767337409</c:v>
+                  <c:v>0.16357810565475073</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.78348017621145372</c:v>
+                  <c:v>0.27535977289336111</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.82703620172522041</c:v>
+                  <c:v>0.12485049609489746</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.81945308360402691</c:v>
+                  <c:v>0.11303624936684468</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.80663998276507198</c:v>
+                  <c:v>0.2009360985569848</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.81781395134961132</c:v>
+                  <c:v>0.22767361224081917</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.81071225071225073</c:v>
+                  <c:v>0.16232146999370381</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.78543511382957587</c:v>
+                  <c:v>9.741689968299172E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.78466408567993551</c:v>
+                  <c:v>0.14600832821637863</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.76238854595336081</c:v>
+                  <c:v>0.12392165047561222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1033,145 +1033,145 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="48"/>
                 <c:pt idx="1">
-                  <c:v>0.85449104393459685</c:v>
+                  <c:v>0.741642117984742</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.53313850046340461</c:v>
+                  <c:v>0.56448687323393032</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.51139490214400674</c:v>
+                  <c:v>0.50446479032440372</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.43885230610739095</c:v>
+                  <c:v>0.45899539536731881</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.44673457703405156</c:v>
+                  <c:v>0.42059045269182005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.36174104632615356</c:v>
+                  <c:v>0.44283481755265047</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.36108056594091342</c:v>
+                  <c:v>0.41017478778156535</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.30848844264380637</c:v>
+                  <c:v>0.43607696834438114</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.36296978629329407</c:v>
+                  <c:v>0.41373701620209424</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.27182014783031594</c:v>
+                  <c:v>0.36112066349752198</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.27214210729874577</c:v>
+                  <c:v>0.3098483987831509</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.32756889990834825</c:v>
+                  <c:v>0.32132606810334952</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.36561185055972834</c:v>
+                  <c:v>0.28943443169021971</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.31827149275581801</c:v>
+                  <c:v>0.31139019710448274</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.16005914275501251</c:v>
+                  <c:v>0.31938300197772457</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.32486087637577804</c:v>
+                  <c:v>0.4016304759099843</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.20055528834530689</c:v>
+                  <c:v>0.40605782393105128</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.23755953457526979</c:v>
+                  <c:v>0.39242770327116344</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.34082082774726463</c:v>
+                  <c:v>0.40774916943521589</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.33998567718444511</c:v>
+                  <c:v>0.33071786451096791</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.20701466817971673</c:v>
+                  <c:v>0.29699873560923667</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.21663672636858317</c:v>
+                  <c:v>0.30016569552377514</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.16963278660295322</c:v>
+                  <c:v>0.33839971324978979</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.2933209267702615</c:v>
+                  <c:v>0.3774025849228847</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.31016392152232525</c:v>
+                  <c:v>0.35707116257418825</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.2025196749221034</c:v>
+                  <c:v>0.29380072862197681</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.22332551206628809</c:v>
+                  <c:v>0.28523205280159891</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.20333088225808532</c:v>
+                  <c:v>0.2818852833178781</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.1506830718635577</c:v>
+                  <c:v>0.24998026860161671</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.11888575529670527</c:v>
+                  <c:v>0.22085561136466392</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.21022193768672642</c:v>
+                  <c:v>0.4332550833097995</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.15888501461170368</c:v>
+                  <c:v>0.26565476190476189</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.19833845487880686</c:v>
+                  <c:v>0.19019485160942895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.16633968476763883</c:v>
+                  <c:v>0.29273862941816609</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.17607971937350583</c:v>
+                  <c:v>0.30410758642904478</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.7951503969203084E-3</c:v>
+                  <c:v>0.24178175715691091</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.8073156748079351E-3</c:v>
+                  <c:v>0.2250929615178289</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.7866648529778506E-3</c:v>
+                  <c:v>0.22503595473427873</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.7927206551410374E-3</c:v>
+                  <c:v>0.17638414831315344</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.829744256509676E-3</c:v>
+                  <c:v>0.12623042394143205</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.8076887787870448E-3</c:v>
+                  <c:v>0.20724839581222559</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.7845610380199726E-3</c:v>
+                  <c:v>0.16780417775764903</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.7893016074834261E-3</c:v>
+                  <c:v>0.1382118856647363</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.78702947845805E-3</c:v>
+                  <c:v>0.21697604525766812</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.7607578533446536E-3</c:v>
+                  <c:v>0.16082566763634457</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.6659373645770577E-3</c:v>
+                  <c:v>0.12758810454620173</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.6908685204256781E-3</c:v>
+                  <c:v>0.16734500484040304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1250,7 +1250,7 @@
         <c:axId val="1085007951"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.60000000000000009"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2275,8 +2275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD61747-5641-6A4F-8443-5DC6BB716242}">
   <dimension ref="B2:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2311,18 +2311,18 @@
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
-        <v>70.308999999999997</v>
+      <c r="C3" s="4">
+        <v>0.17044400000000001</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="3">
-        <v>71.14</v>
+      <c r="F3" s="4">
+        <v>0.195935</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="4">
-        <v>0.15761600000000001</v>
+        <v>0.19637199999999999</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -2331,1814 +2331,1814 @@
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="3">
-        <v>38.328000000000003</v>
+      <c r="C4" s="4">
+        <v>0.12867000000000001</v>
       </c>
       <c r="D4" s="3">
         <f>C$3/C4</f>
-        <v>1.8344030473805049</v>
+        <v>1.3246599829019974</v>
       </c>
       <c r="E4" s="3">
         <f>D4/$B4</f>
-        <v>0.91720152369025243</v>
-      </c>
-      <c r="F4" s="3">
-        <v>36.606000000000002</v>
+        <v>0.66232999145099869</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.130908</v>
       </c>
       <c r="G4" s="3">
         <f>F$3/F4</f>
-        <v>1.9433972572802272</v>
+        <v>1.4967381672625051</v>
       </c>
       <c r="H4" s="3">
         <f>G4/$B4</f>
-        <v>0.97169862864011358</v>
+        <v>0.74836908363125254</v>
       </c>
       <c r="I4" s="4">
-        <v>9.2228000000000004E-2</v>
+        <v>0.13239000000000001</v>
       </c>
       <c r="J4" s="3">
         <f>I$3/I4</f>
-        <v>1.7089820878691937</v>
+        <v>1.483284235969484</v>
       </c>
       <c r="K4" s="3">
         <f>J4/$B4</f>
-        <v>0.85449104393459685</v>
+        <v>0.741642117984742</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="3">
-        <v>25.02</v>
+      <c r="C5" s="4">
+        <v>0.11032699999999999</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" ref="D5:D51" si="0">C$3/C5</f>
-        <v>2.8101119104716226</v>
+        <v>1.5448983476392906</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" ref="E5:E50" si="1">D5/$B5</f>
-        <v>0.93670397015720752</v>
-      </c>
-      <c r="F5" s="3">
-        <v>24.645</v>
+        <v>0.51496611587976349</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.105825</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" ref="G5:G51" si="2">F$3/F5</f>
-        <v>2.8865895719212822</v>
+        <v>1.851500118119537</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" ref="H5:H50" si="3">G5/$B5</f>
-        <v>0.96219652397376076</v>
+        <v>0.61716670603984569</v>
       </c>
       <c r="I5" s="4">
-        <v>9.8545999999999995E-2</v>
+        <v>0.11595900000000001</v>
       </c>
       <c r="J5" s="3">
         <f t="shared" ref="J5:J51" si="4">I$3/I5</f>
-        <v>1.5994155013902138</v>
+        <v>1.693460619701791</v>
       </c>
       <c r="K5" s="3">
         <f t="shared" ref="K5:K50" si="5">J5/$B5</f>
-        <v>0.53313850046340461</v>
+        <v>0.56448687323393032</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="3">
-        <v>18.899000000000001</v>
+      <c r="C6" s="4">
+        <v>9.8946999999999993E-2</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>3.7202497486639503</v>
+        <v>1.7225787542825959</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" si="1"/>
-        <v>0.93006243716598758</v>
-      </c>
-      <c r="F6" s="3">
-        <v>19.245000000000001</v>
+        <v>0.43064468857064897</v>
+      </c>
+      <c r="F6" s="4">
+        <v>9.6904000000000004E-2</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="2"/>
-        <v>3.6965445570277993</v>
+        <v>2.0219495583257654</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="3"/>
-        <v>0.92413613925694982</v>
+        <v>0.50548738958144135</v>
       </c>
       <c r="I6" s="4">
-        <v>7.7051999999999995E-2</v>
+        <v>9.7317000000000001E-2</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" si="4"/>
-        <v>2.0455796085760269</v>
+        <v>2.0178591612976149</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" si="5"/>
-        <v>0.51139490214400674</v>
+        <v>0.50446479032440372</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="3">
-        <v>15.396000000000001</v>
+      <c r="C7" s="4">
+        <v>0.105241</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>4.5667056378280071</v>
+        <v>1.6195589171520606</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" si="1"/>
-        <v>0.91334112756560137</v>
-      </c>
-      <c r="F7" s="3">
-        <v>15.557</v>
+        <v>0.3239117834304121</v>
+      </c>
+      <c r="F7" s="4">
+        <v>8.8158E-2</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="2"/>
-        <v>4.5728610914700774</v>
+        <v>2.2225436148732958</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="3"/>
-        <v>0.91457221829401547</v>
+        <v>0.44450872297465915</v>
       </c>
       <c r="I7" s="4">
-        <v>7.1831000000000006E-2</v>
+        <v>8.5566000000000003E-2</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" si="4"/>
-        <v>2.1942615305369548</v>
+        <v>2.294976976836594</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" si="5"/>
-        <v>0.43885230610739095</v>
+        <v>0.45899539536731881</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="3">
-        <v>13.085000000000001</v>
+      <c r="C8" s="4">
+        <v>8.5527000000000006E-2</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>5.3732518150554061</v>
+        <v>1.9928677493656974</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="1"/>
-        <v>0.89554196917590101</v>
-      </c>
-      <c r="F8" s="3">
-        <v>12.683</v>
+        <v>0.33214462489428292</v>
+      </c>
+      <c r="F8" s="4">
+        <v>6.7191000000000001E-2</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="2"/>
-        <v>5.6090830245210128</v>
+        <v>2.9160899525234032</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="3"/>
-        <v>0.9348471707535021</v>
+        <v>0.48601499208723387</v>
       </c>
       <c r="I8" s="4">
-        <v>5.8803000000000001E-2</v>
+        <v>7.7815999999999996E-2</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" si="4"/>
-        <v>2.6804074622043093</v>
+        <v>2.5235427161509203</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" si="5"/>
-        <v>0.44673457703405156</v>
+        <v>0.42059045269182005</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>7</v>
       </c>
-      <c r="C9" s="3">
-        <v>11.061</v>
+      <c r="C9" s="4">
+        <v>6.1608999999999997E-2</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
-        <v>6.3564777144923603</v>
+        <v>2.7665438491129546</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="1"/>
-        <v>0.90806824492748006</v>
-      </c>
-      <c r="F9" s="3">
-        <v>11.055999999999999</v>
+        <v>0.3952205498732792</v>
+      </c>
+      <c r="F9" s="4">
+        <v>6.3715999999999995E-2</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="2"/>
-        <v>6.4345151953690305</v>
+        <v>3.0751302655533932</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="3"/>
-        <v>0.91921645648129002</v>
+        <v>0.43930432365048472</v>
       </c>
       <c r="I9" s="4">
-        <v>6.2245000000000002E-2</v>
+        <v>6.3349000000000003E-2</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" si="4"/>
-        <v>2.532187324283075</v>
+        <v>3.0998437228685534</v>
       </c>
       <c r="K9" s="3">
         <f t="shared" si="5"/>
-        <v>0.36174104632615356</v>
+        <v>0.44283481755265047</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="3">
-        <v>9.9139999999999997</v>
+      <c r="C10" s="4">
+        <v>5.2351000000000002E-2</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" si="0"/>
-        <v>7.0918902562033486</v>
+        <v>3.2557926305132665</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" si="1"/>
-        <v>0.88648628202541857</v>
-      </c>
-      <c r="F10" s="3">
-        <v>9.6110000000000007</v>
+        <v>0.40697407881415831</v>
+      </c>
+      <c r="F10" s="4">
+        <v>5.5445000000000001E-2</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="2"/>
-        <v>7.4019352824888145</v>
+        <v>3.5338623861484351</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="3"/>
-        <v>0.92524191031110181</v>
+        <v>0.44173279826855438</v>
       </c>
       <c r="I10" s="4">
-        <v>5.4564000000000001E-2</v>
+        <v>5.9844000000000001E-2</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="4"/>
-        <v>2.8886445275273074</v>
+        <v>3.2813983022525228</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" si="5"/>
-        <v>0.36108056594091342</v>
+        <v>0.41017478778156535</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>9</v>
       </c>
-      <c r="C11" s="3">
-        <v>8.6638999999999999</v>
+      <c r="C11" s="4">
+        <v>6.3003000000000003E-2</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="0"/>
-        <v>8.1151675342513183</v>
+        <v>2.7053314921511675</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" si="1"/>
-        <v>0.90168528158347983</v>
-      </c>
-      <c r="F11" s="3">
-        <v>8.5960000000000001</v>
+        <v>0.30059238801679639</v>
+      </c>
+      <c r="F11" s="4">
+        <v>5.9236999999999998E-2</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="2"/>
-        <v>8.2759422987436011</v>
+        <v>3.3076455593632357</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="3"/>
-        <v>0.91954914430484458</v>
+        <v>0.36751617326258174</v>
       </c>
       <c r="I11" s="4">
-        <v>5.6770000000000001E-2</v>
+        <v>5.0035000000000003E-2</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" si="4"/>
-        <v>2.7763959837942576</v>
+        <v>3.9246927150994302</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" si="5"/>
-        <v>0.30848844264380637</v>
+        <v>0.43607696834438114</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>10</v>
       </c>
-      <c r="C12" s="3">
-        <v>7.7759999999999998</v>
+      <c r="C12" s="4">
+        <v>4.6914999999999998E-2</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" si="0"/>
-        <v>9.0417952674897126</v>
+        <v>3.6330384738356605</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="1"/>
-        <v>0.90417952674897129</v>
-      </c>
-      <c r="F12" s="3">
-        <v>7.7489999999999997</v>
+        <v>0.36330384738356603</v>
+      </c>
+      <c r="F12" s="4">
+        <v>5.3464999999999999E-2</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" si="2"/>
-        <v>9.1805394244418643</v>
+        <v>3.6647339380903396</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="3"/>
-        <v>0.91805394244418648</v>
+        <v>0.36647339380903399</v>
       </c>
       <c r="I12" s="4">
-        <v>4.3423999999999997E-2</v>
+        <v>4.7462999999999998E-2</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="4"/>
-        <v>3.6296978629329408</v>
+        <v>4.1373701620209422</v>
       </c>
       <c r="K12" s="3">
         <f t="shared" si="5"/>
-        <v>0.36296978629329407</v>
+        <v>0.41373701620209424</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>11</v>
       </c>
-      <c r="C13" s="3">
-        <v>7.0449999999999999</v>
+      <c r="C13" s="4">
+        <v>4.0168000000000002E-2</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" si="0"/>
-        <v>9.9799858055358399</v>
+        <v>4.2432782314280022</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="1"/>
-        <v>0.90727143686689449</v>
-      </c>
-      <c r="F13" s="3">
-        <v>7.0389999999999997</v>
+        <v>0.38575256649345474</v>
+      </c>
+      <c r="F13" s="4">
+        <v>5.1699000000000002E-2</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="2"/>
-        <v>10.106549225742294</v>
+        <v>3.7899185670902722</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="3"/>
-        <v>0.91877720234020854</v>
+        <v>0.34453805155366113</v>
       </c>
       <c r="I13" s="4">
-        <v>5.2713999999999997E-2</v>
+        <v>4.9435E-2</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" si="4"/>
-        <v>2.9900216261334753</v>
+        <v>3.972327298472742</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" si="5"/>
-        <v>0.27182014783031594</v>
+        <v>0.36112066349752198</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>12</v>
       </c>
-      <c r="C14" s="3">
-        <v>6.4740000000000002</v>
+      <c r="C14" s="4">
+        <v>5.2526999999999997E-2</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" si="0"/>
-        <v>10.860210071053444</v>
+        <v>3.2448835836807741</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="1"/>
-        <v>0.9050175059211204</v>
-      </c>
-      <c r="F14" s="3">
-        <v>6.4569999999999999</v>
+        <v>0.2704069653067312</v>
+      </c>
+      <c r="F14" s="4">
+        <v>5.0437000000000003E-2</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="2"/>
-        <v>11.017500387176709</v>
+        <v>3.8847473085235045</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="3"/>
-        <v>0.91812503226472575</v>
+        <v>0.32372894237695871</v>
       </c>
       <c r="I14" s="4">
-        <v>4.8264000000000001E-2</v>
+        <v>5.2814E-2</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="4"/>
-        <v>3.2657052875849493</v>
+        <v>3.7181807853978111</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="5"/>
-        <v>0.27214210729874577</v>
+        <v>0.3098483987831509</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>13</v>
       </c>
-      <c r="C15" s="3">
-        <v>6.1959999999999997</v>
+      <c r="C15" s="4">
+        <v>5.0382000000000003E-2</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="0"/>
-        <v>11.347482246610717</v>
+        <v>3.3830336231193678</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="1"/>
-        <v>0.87288324973928588</v>
-      </c>
-      <c r="F15" s="3">
-        <v>5.9640000000000004</v>
+        <v>0.26023335562456673</v>
+      </c>
+      <c r="F15" s="4">
+        <v>4.5763999999999999E-2</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="2"/>
-        <v>11.928236083165659</v>
+        <v>4.2814220784896424</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="3"/>
-        <v>0.91755662178197384</v>
+        <v>0.32934015988381865</v>
       </c>
       <c r="I15" s="4">
-        <v>3.7012999999999997E-2</v>
+        <v>4.7010000000000003E-2</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="4"/>
-        <v>4.2583956988085276</v>
+        <v>4.1772388853435434</v>
       </c>
       <c r="K15" s="3">
         <f t="shared" si="5"/>
-        <v>0.32756889990834825</v>
+        <v>0.32132606810334952</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>14</v>
       </c>
-      <c r="C16" s="3">
-        <v>5.5810000000000004</v>
+      <c r="C16" s="4">
+        <v>4.6415999999999999E-2</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" si="0"/>
-        <v>12.597921519440959</v>
+        <v>3.6720958290244745</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" si="1"/>
-        <v>0.89985153710292565</v>
-      </c>
-      <c r="F16" s="3">
-        <v>5.5369999999999999</v>
+        <v>0.26229255921603389</v>
+      </c>
+      <c r="F16" s="4">
+        <v>4.1229000000000002E-2</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="2"/>
-        <v>12.848112696405996</v>
+        <v>4.7523587765892934</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="3"/>
-        <v>0.9177223354575712</v>
+        <v>0.33945419832780666</v>
       </c>
       <c r="I16" s="4">
-        <v>3.0793000000000001E-2</v>
+        <v>4.8461999999999998E-2</v>
       </c>
       <c r="J16" s="3">
         <f t="shared" si="4"/>
-        <v>5.1185659078361967</v>
+        <v>4.0520820436630762</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" si="5"/>
-        <v>0.36561185055972834</v>
+        <v>0.28943443169021971</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>15</v>
       </c>
-      <c r="C17" s="3">
-        <v>5.1719999999999997</v>
+      <c r="C17" s="4">
+        <v>5.5084000000000001E-2</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" si="0"/>
-        <v>13.59416086620263</v>
+        <v>3.0942560453126138</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" si="1"/>
-        <v>0.90627739108017535</v>
-      </c>
-      <c r="F17" s="3">
-        <v>5.1719999999999997</v>
+        <v>0.20628373635417424</v>
+      </c>
+      <c r="F17" s="4">
+        <v>4.1999000000000002E-2</v>
       </c>
       <c r="G17" s="3">
         <f t="shared" si="2"/>
-        <v>13.754833720030936</v>
+        <v>4.665230124526774</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="3"/>
-        <v>0.916988914668729</v>
+        <v>0.31101534163511829</v>
       </c>
       <c r="I17" s="4">
-        <v>3.3015000000000003E-2</v>
+        <v>4.2042000000000003E-2</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="4"/>
-        <v>4.7740723913372705</v>
+        <v>4.6708529565672414</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" si="5"/>
-        <v>0.31827149275581801</v>
+        <v>0.31139019710448274</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>16</v>
       </c>
-      <c r="C18" s="3">
-        <v>5.0490000000000004</v>
+      <c r="C18" s="4">
+        <v>2.6731999999999999E-2</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" si="0"/>
-        <v>13.92533174886116</v>
+        <v>6.3760287296124503</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" si="1"/>
-        <v>0.87033323430382248</v>
-      </c>
-      <c r="F18" s="3">
-        <v>4.8419999999999996</v>
+        <v>0.39850179560077814</v>
+      </c>
+      <c r="F18" s="4">
+        <v>3.7548999999999999E-2</v>
       </c>
       <c r="G18" s="3">
         <f t="shared" si="2"/>
-        <v>14.69227591904172</v>
+        <v>5.2181149964046982</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="3"/>
-        <v>0.91826724494010747</v>
+        <v>0.32613218727529364</v>
       </c>
       <c r="I18" s="4">
-        <v>6.1545999999999997E-2</v>
+        <v>3.8427999999999997E-2</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" si="4"/>
-        <v>2.5609462840802002</v>
+        <v>5.1101280316435931</v>
       </c>
       <c r="K18" s="3">
         <f t="shared" si="5"/>
-        <v>0.16005914275501251</v>
+        <v>0.31938300197772457</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>17</v>
       </c>
-      <c r="C19" s="3">
-        <v>4.7279999999999998</v>
+      <c r="C19" s="4">
+        <v>3.4882000000000003E-2</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" si="0"/>
-        <v>14.870769881556685</v>
+        <v>4.8863023909179519</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" si="1"/>
-        <v>0.87475116950333442</v>
-      </c>
-      <c r="F19" s="3">
-        <v>4.5650000000000004</v>
+        <v>0.28742955240693835</v>
+      </c>
+      <c r="F19" s="4">
+        <v>3.4077999999999997E-2</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="2"/>
-        <v>15.583789704271631</v>
+        <v>5.749603849991197</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="3"/>
-        <v>0.91669351201597826</v>
+        <v>0.33821199117595274</v>
       </c>
       <c r="I19" s="4">
-        <v>2.8539999999999999E-2</v>
+        <v>2.8760999999999998E-2</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="4"/>
-        <v>5.522634898388227</v>
+        <v>6.827718090469733</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" si="5"/>
-        <v>0.32486087637577804</v>
+        <v>0.4016304759099843</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>18</v>
       </c>
-      <c r="C20" s="3">
-        <v>4.367</v>
+      <c r="C20" s="4">
+        <v>3.4887000000000001E-2</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" si="0"/>
-        <v>16.100068697046027</v>
+        <v>4.8856020867371805</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" si="1"/>
-        <v>0.89444826094700147</v>
-      </c>
-      <c r="F20" s="3">
-        <v>4.3019999999999996</v>
+        <v>0.27142233815206557</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3.3929000000000001E-2</v>
       </c>
       <c r="G20" s="3">
         <f t="shared" si="2"/>
-        <v>16.536494653649466</v>
+        <v>5.7748533702732177</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="3"/>
-        <v>0.91869414742497035</v>
+        <v>0.320825187237401</v>
       </c>
       <c r="I20" s="4">
-        <v>4.3660999999999998E-2</v>
+        <v>2.6866999999999999E-2</v>
       </c>
       <c r="J20" s="3">
         <f t="shared" si="4"/>
-        <v>3.6099951902155243</v>
+        <v>7.3090408307589234</v>
       </c>
       <c r="K20" s="3">
         <f t="shared" si="5"/>
-        <v>0.20055528834530689</v>
+        <v>0.40605782393105128</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>19</v>
       </c>
-      <c r="C21" s="3">
-        <v>4.2450000000000001</v>
+      <c r="C21" s="4">
+        <v>2.5173999999999998E-2</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" si="0"/>
-        <v>16.562779740871612</v>
+        <v>6.7706363708588233</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" si="1"/>
-        <v>0.87172524951955854</v>
-      </c>
-      <c r="F21" s="3">
-        <v>4.2910000000000004</v>
+        <v>0.35634928267678018</v>
+      </c>
+      <c r="F21" s="4">
+        <v>3.4569000000000003E-2</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" si="2"/>
-        <v>16.578886040549985</v>
+        <v>5.6679394833521357</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="3"/>
-        <v>0.87257294950263076</v>
+        <v>0.29831260438695451</v>
       </c>
       <c r="I21" s="4">
-        <v>3.492E-2</v>
+        <v>2.6336999999999999E-2</v>
       </c>
       <c r="J21" s="3">
         <f t="shared" si="4"/>
-        <v>4.513631156930126</v>
+        <v>7.456126362152105</v>
       </c>
       <c r="K21" s="3">
         <f t="shared" si="5"/>
-        <v>0.23755953457526979</v>
+        <v>0.39242770327116344</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>20</v>
       </c>
-      <c r="C22" s="3">
-        <v>3.931</v>
+      <c r="C22" s="4">
+        <v>2.9921E-2</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" si="0"/>
-        <v>17.885779699821928</v>
+        <v>5.6964673640586883</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" si="1"/>
-        <v>0.89428898499109644</v>
-      </c>
-      <c r="F22" s="3">
-        <v>3.984</v>
+        <v>0.28482336820293441</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2.4555E-2</v>
       </c>
       <c r="G22" s="3">
         <f t="shared" si="2"/>
-        <v>17.856425702811244</v>
+        <v>7.9794339238444305</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="3"/>
-        <v>0.89282128514056214</v>
+        <v>0.3989716961922215</v>
       </c>
       <c r="I22" s="4">
-        <v>2.3123000000000001E-2</v>
+        <v>2.4080000000000001E-2</v>
       </c>
       <c r="J22" s="3">
         <f t="shared" si="4"/>
-        <v>6.8164165549452926</v>
+        <v>8.1549833887043182</v>
       </c>
       <c r="K22" s="3">
         <f t="shared" si="5"/>
-        <v>0.34082082774726463</v>
+        <v>0.40774916943521589</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>21</v>
       </c>
-      <c r="C23" s="3">
-        <v>3.8279999999999998</v>
+      <c r="C23" s="4">
+        <v>3.3300000000000003E-2</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" si="0"/>
-        <v>18.367032392894462</v>
+        <v>5.1184384384384387</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" si="1"/>
-        <v>0.87462059013783156</v>
-      </c>
-      <c r="F23" s="3">
-        <v>3.7869999999999999</v>
+        <v>0.24373516373516374</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2.2759000000000001E-2</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" si="2"/>
-        <v>18.785318193820967</v>
+        <v>8.6091216661540475</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" si="3"/>
-        <v>0.89453896161052227</v>
+        <v>0.40995817457876416</v>
       </c>
       <c r="I23" s="4">
-        <v>2.2075999999999998E-2</v>
+        <v>2.8275000000000002E-2</v>
       </c>
       <c r="J23" s="3">
         <f t="shared" si="4"/>
-        <v>7.1396992208733474</v>
+        <v>6.9450751547303264</v>
       </c>
       <c r="K23" s="3">
         <f t="shared" si="5"/>
-        <v>0.33998567718444511</v>
+        <v>0.33071786451096791</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
         <v>22</v>
       </c>
-      <c r="C24" s="3">
-        <v>3.7229999999999999</v>
+      <c r="C24" s="4">
+        <v>3.1905999999999997E-2</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" si="0"/>
-        <v>18.885038947085683</v>
+        <v>5.3420673227606104</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" si="1"/>
-        <v>0.85841086123116739</v>
-      </c>
-      <c r="F24" s="3">
-        <v>3.56</v>
+        <v>0.24282124194366411</v>
+      </c>
+      <c r="F24" s="4">
+        <v>3.1673E-2</v>
       </c>
       <c r="G24" s="3">
         <f t="shared" si="2"/>
-        <v>19.983146067415731</v>
+        <v>6.1861838158684055</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="3"/>
-        <v>0.90832482124616964</v>
+        <v>0.2811901734485639</v>
       </c>
       <c r="I24" s="4">
-        <v>3.4608E-2</v>
+        <v>3.0054000000000001E-2</v>
       </c>
       <c r="J24" s="3">
         <f t="shared" si="4"/>
-        <v>4.5543226999537678</v>
+        <v>6.5339721834032067</v>
       </c>
       <c r="K24" s="3">
         <f t="shared" si="5"/>
-        <v>0.20701466817971673</v>
+        <v>0.29699873560923667</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <v>23</v>
       </c>
-      <c r="C25" s="3">
-        <v>3.5569999999999999</v>
+      <c r="C25" s="4">
+        <v>4.2900000000000001E-2</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" si="0"/>
-        <v>19.766376159685127</v>
+        <v>3.9730536130536134</v>
       </c>
       <c r="E25" s="3">
         <f t="shared" si="1"/>
-        <v>0.85940765911674466</v>
-      </c>
-      <c r="F25" s="3">
-        <v>3.452</v>
+        <v>0.17274146143711364</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2.2894000000000001E-2</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" si="2"/>
-        <v>20.608342989571263</v>
+        <v>8.5583559011094597</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="3"/>
-        <v>0.89601491259005495</v>
+        <v>0.37210243048302</v>
       </c>
       <c r="I25" s="4">
-        <v>3.1633000000000001E-2</v>
+        <v>2.8444000000000001E-2</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" si="4"/>
-        <v>4.9826447064774131</v>
+        <v>6.9038109970468282</v>
       </c>
       <c r="K25" s="3">
         <f t="shared" si="5"/>
-        <v>0.21663672636858317</v>
+        <v>0.30016569552377514</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
         <v>24</v>
       </c>
-      <c r="C26" s="3">
-        <v>3.3919999999999999</v>
+      <c r="C26" s="4">
+        <v>3.8226999999999997E-2</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" si="0"/>
-        <v>20.727889150943398</v>
+        <v>4.4587333560049185</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" si="1"/>
-        <v>0.8636620479559749</v>
-      </c>
-      <c r="F26" s="3">
-        <v>3.331</v>
+        <v>0.18578055650020495</v>
+      </c>
+      <c r="F26" s="4">
+        <v>2.1731E-2</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" si="2"/>
-        <v>21.356949864905435</v>
+        <v>9.0163821269154667</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="3"/>
-        <v>0.88987291103772648</v>
+        <v>0.3756825886214778</v>
       </c>
       <c r="I26" s="4">
-        <v>3.8714999999999999E-2</v>
+        <v>2.4178999999999999E-2</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" si="4"/>
-        <v>4.0711868784708773</v>
+        <v>8.121593117994955</v>
       </c>
       <c r="K26" s="3">
         <f t="shared" si="5"/>
-        <v>0.16963278660295322</v>
+        <v>0.33839971324978979</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>25</v>
       </c>
-      <c r="C27" s="3">
-        <v>3.33</v>
+      <c r="C27" s="4">
+        <v>3.2032999999999999E-2</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" si="0"/>
-        <v>21.113813813813813</v>
+        <v>5.3208878344207537</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" si="1"/>
-        <v>0.84455255255255257</v>
-      </c>
-      <c r="F27" s="3">
-        <v>3.2050000000000001</v>
+        <v>0.21283551337683015</v>
+      </c>
+      <c r="F27" s="4">
+        <v>3.0655999999999999E-2</v>
       </c>
       <c r="G27" s="3">
         <f t="shared" si="2"/>
-        <v>22.19656786271451</v>
+        <v>6.3914078810020873</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="3"/>
-        <v>0.88786271450858034</v>
+        <v>0.25565631524008348</v>
       </c>
       <c r="I27" s="4">
-        <v>2.1493999999999999E-2</v>
+        <v>2.0813000000000002E-2</v>
       </c>
       <c r="J27" s="3">
         <f t="shared" si="4"/>
-        <v>7.3330231692565375</v>
+        <v>9.4350646230721171</v>
       </c>
       <c r="K27" s="3">
         <f t="shared" si="5"/>
-        <v>0.2933209267702615</v>
+        <v>0.3774025849228847</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <v>26</v>
       </c>
-      <c r="C28" s="3">
-        <v>3.2650000000000001</v>
+      <c r="C28" s="4">
+        <v>3.4296E-2</v>
       </c>
       <c r="D28" s="3">
         <f t="shared" si="0"/>
-        <v>21.534150076569677</v>
+        <v>4.9697923956146495</v>
       </c>
       <c r="E28" s="3">
         <f t="shared" si="1"/>
-        <v>0.82823654140652603</v>
-      </c>
-      <c r="F28" s="3">
-        <v>3.1739999999999999</v>
+        <v>0.19114586136979422</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2.5852E-2</v>
       </c>
       <c r="G28" s="3">
         <f t="shared" si="2"/>
-        <v>22.413358538122242</v>
+        <v>7.5791041312084166</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="3"/>
-        <v>0.86205225146624009</v>
+        <v>0.29150400504647755</v>
       </c>
       <c r="I28" s="4">
-        <v>1.9545E-2</v>
+        <v>2.1152000000000001E-2</v>
       </c>
       <c r="J28" s="3">
         <f t="shared" si="4"/>
-        <v>8.0642619595804561</v>
+        <v>9.2838502269288945</v>
       </c>
       <c r="K28" s="3">
         <f t="shared" si="5"/>
-        <v>0.31016392152232525</v>
+        <v>0.35707116257418825</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
         <v>27</v>
       </c>
-      <c r="C29" s="3">
-        <v>3.1070000000000002</v>
+      <c r="C29" s="4">
+        <v>3.6516E-2</v>
       </c>
       <c r="D29" s="3">
         <f t="shared" si="0"/>
-        <v>22.6292243321532</v>
+        <v>4.6676525358746854</v>
       </c>
       <c r="E29" s="3">
         <f t="shared" si="1"/>
-        <v>0.83811941970937776</v>
-      </c>
-      <c r="F29" s="3">
-        <v>3.0030000000000001</v>
+        <v>0.17287601984721057</v>
+      </c>
+      <c r="F29" s="4">
+        <v>2.7640999999999999E-2</v>
       </c>
       <c r="G29" s="3">
         <f t="shared" si="2"/>
-        <v>23.689643689643688</v>
+        <v>7.0885640895770781</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="3"/>
-        <v>0.87739421072754398</v>
+        <v>0.26253941072507697</v>
       </c>
       <c r="I29" s="4">
-        <v>2.8825E-2</v>
+        <v>2.4754999999999999E-2</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" si="4"/>
-        <v>5.4680312228967916</v>
+        <v>7.9326196727933747</v>
       </c>
       <c r="K29" s="3">
         <f t="shared" si="5"/>
-        <v>0.2025196749221034</v>
+        <v>0.29380072862197681</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
         <v>28</v>
       </c>
-      <c r="C30" s="3">
-        <v>3.0129999999999999</v>
+      <c r="C30" s="4">
+        <v>2.5486000000000002E-2</v>
       </c>
       <c r="D30" s="3">
         <f t="shared" si="0"/>
-        <v>23.335214072353136</v>
+        <v>6.6877501373302994</v>
       </c>
       <c r="E30" s="3">
         <f t="shared" si="1"/>
-        <v>0.83340050258404053</v>
-      </c>
-      <c r="F30" s="3">
-        <v>2.9079999999999999</v>
+        <v>0.23884821919036783</v>
+      </c>
+      <c r="F30" s="4">
+        <v>2.4996000000000001E-2</v>
       </c>
       <c r="G30" s="3">
         <f t="shared" si="2"/>
-        <v>24.463548830811554</v>
+        <v>7.8386541846695472</v>
       </c>
       <c r="H30" s="3">
         <f t="shared" si="3"/>
-        <v>0.87369817252898407</v>
+        <v>0.27995193516676953</v>
       </c>
       <c r="I30" s="4">
-        <v>2.5205999999999999E-2</v>
+        <v>2.4587999999999999E-2</v>
       </c>
       <c r="J30" s="3">
         <f t="shared" si="4"/>
-        <v>6.2531143378560667</v>
+        <v>7.98649747844477</v>
       </c>
       <c r="K30" s="3">
         <f t="shared" si="5"/>
-        <v>0.22332551206628809</v>
+        <v>0.28523205280159891</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
         <v>29</v>
       </c>
-      <c r="C31" s="3">
-        <v>2.9060000000000001</v>
+      <c r="C31" s="4">
+        <v>2.1204000000000001E-2</v>
       </c>
       <c r="D31" s="3">
         <f t="shared" si="0"/>
-        <v>24.19442532690984</v>
+        <v>8.0382946613846453</v>
       </c>
       <c r="E31" s="3">
         <f t="shared" si="1"/>
-        <v>0.83429052851413243</v>
-      </c>
-      <c r="F31" s="3">
-        <v>2.8330000000000002</v>
+        <v>0.27718257453050499</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2.7348000000000001E-2</v>
       </c>
       <c r="G31" s="3">
         <f t="shared" si="2"/>
-        <v>25.111189551711966</v>
+        <v>7.1645092876992829</v>
       </c>
       <c r="H31" s="3">
         <f t="shared" si="3"/>
-        <v>0.86590308799006777</v>
+        <v>0.24705204440342354</v>
       </c>
       <c r="I31" s="4">
-        <v>2.673E-2</v>
+        <v>2.4022000000000002E-2</v>
       </c>
       <c r="J31" s="3">
         <f t="shared" si="4"/>
-        <v>5.8965955854844747</v>
+        <v>8.1746732162184657</v>
       </c>
       <c r="K31" s="3">
         <f t="shared" si="5"/>
-        <v>0.20333088225808532</v>
+        <v>0.2818852833178781</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="1">
         <v>30</v>
       </c>
-      <c r="C32" s="3">
-        <v>2.8679999999999999</v>
+      <c r="C32" s="4">
+        <v>2.6765000000000001E-2</v>
       </c>
       <c r="D32" s="3">
         <f t="shared" si="0"/>
-        <v>24.514993026499301</v>
+        <v>6.3681673827760141</v>
       </c>
       <c r="E32" s="3">
         <f t="shared" si="1"/>
-        <v>0.81716643421664337</v>
-      </c>
-      <c r="F32" s="3">
-        <v>2.754</v>
+        <v>0.21227224609253381</v>
+      </c>
+      <c r="F32" s="4">
+        <v>2.3276999999999999E-2</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" si="2"/>
-        <v>25.831517792302105</v>
+        <v>8.4175366241354137</v>
       </c>
       <c r="H32" s="3">
         <f t="shared" si="3"/>
-        <v>0.86105059307673681</v>
+        <v>0.28058455413784711</v>
       </c>
       <c r="I32" s="4">
-        <v>3.4867000000000002E-2</v>
+        <v>2.6185E-2</v>
       </c>
       <c r="J32" s="3">
         <f t="shared" si="4"/>
-        <v>4.520492155906731</v>
+        <v>7.499408058048501</v>
       </c>
       <c r="K32" s="3">
         <f t="shared" si="5"/>
-        <v>0.1506830718635577</v>
+        <v>0.24998026860161671</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
         <v>31</v>
       </c>
-      <c r="C33" s="3">
-        <v>2.7440000000000002</v>
+      <c r="C33" s="4">
+        <v>2.3701E-2</v>
       </c>
       <c r="D33" s="3">
         <f t="shared" si="0"/>
-        <v>25.622813411078713</v>
+        <v>7.1914265220876761</v>
       </c>
       <c r="E33" s="3">
         <f t="shared" si="1"/>
-        <v>0.82654236809931336</v>
-      </c>
-      <c r="F33" s="3">
-        <v>2.6819999999999999</v>
+        <v>0.23198150071250567</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2.4455999999999999E-2</v>
       </c>
       <c r="G33" s="3">
         <f t="shared" si="2"/>
-        <v>26.524981357196122</v>
+        <v>8.0117353614654903</v>
       </c>
       <c r="H33" s="3">
         <f t="shared" si="3"/>
-        <v>0.85564455990955235</v>
+        <v>0.25844307617630613</v>
       </c>
       <c r="I33" s="4">
-        <v>4.2766999999999999E-2</v>
+        <v>2.8681999999999999E-2</v>
       </c>
       <c r="J33" s="3">
         <f t="shared" si="4"/>
-        <v>3.6854584141978632</v>
+        <v>6.8465239523045813</v>
       </c>
       <c r="K33" s="3">
         <f t="shared" si="5"/>
-        <v>0.11888575529670527</v>
+        <v>0.22085561136466392</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <v>32</v>
       </c>
-      <c r="C34" s="3">
-        <v>2.6859999999999999</v>
+      <c r="C34" s="4">
+        <v>5.2227000000000003E-2</v>
       </c>
       <c r="D34" s="3">
         <f t="shared" si="0"/>
-        <v>26.176098287416231</v>
+        <v>3.263522698987114</v>
       </c>
       <c r="E34" s="3">
         <f t="shared" si="1"/>
-        <v>0.81800307148175722</v>
-      </c>
-      <c r="F34" s="3">
-        <v>2.7429999999999999</v>
+        <v>0.10198508434334731</v>
+      </c>
+      <c r="F34" s="4">
+        <v>2.1724E-2</v>
       </c>
       <c r="G34" s="3">
         <f t="shared" si="2"/>
-        <v>25.935107546481955</v>
+        <v>9.0192874240471372</v>
       </c>
       <c r="H34" s="3">
         <f t="shared" si="3"/>
-        <v>0.8104721108275611</v>
+        <v>0.28185273200147304</v>
       </c>
       <c r="I34" s="4">
-        <v>2.3429999999999999E-2</v>
+        <v>1.4164E-2</v>
       </c>
       <c r="J34" s="3">
         <f t="shared" si="4"/>
-        <v>6.7271020059752455</v>
+        <v>13.864162665913584</v>
       </c>
       <c r="K34" s="3">
         <f t="shared" si="5"/>
-        <v>0.21022193768672642</v>
+        <v>0.4332550833097995</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
         <v>33</v>
       </c>
-      <c r="C35" s="3">
-        <v>2.5960000000000001</v>
+      <c r="C35" s="4">
+        <v>1.5604E-2</v>
       </c>
       <c r="D35" s="3">
         <f t="shared" si="0"/>
-        <v>27.083590138674882</v>
+        <v>10.923096641886696</v>
       </c>
       <c r="E35" s="3">
         <f t="shared" si="1"/>
-        <v>0.82071485268711764</v>
-      </c>
-      <c r="F35" s="3">
-        <v>2.54</v>
+        <v>0.33100292854202107</v>
+      </c>
+      <c r="F35" s="4">
+        <v>3.8811999999999999E-2</v>
       </c>
       <c r="G35" s="3">
         <f t="shared" si="2"/>
-        <v>28.00787401574803</v>
+        <v>5.0483098010924454</v>
       </c>
       <c r="H35" s="3">
         <f t="shared" si="3"/>
-        <v>0.84872345502266755</v>
+        <v>0.15297908488158926</v>
       </c>
       <c r="I35" s="4">
-        <v>3.0061000000000001E-2</v>
+        <v>2.24E-2</v>
       </c>
       <c r="J35" s="3">
         <f t="shared" si="4"/>
-        <v>5.2432054821862213</v>
+        <v>8.7666071428571417</v>
       </c>
       <c r="K35" s="3">
         <f t="shared" si="5"/>
-        <v>0.15888501461170368</v>
+        <v>0.26565476190476189</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
         <v>34</v>
       </c>
-      <c r="C36" s="3">
-        <v>2.6309999999999998</v>
+      <c r="C36" s="4">
+        <v>2.4754999999999999E-2</v>
       </c>
       <c r="D36" s="3">
         <f t="shared" si="0"/>
-        <v>26.723299125807678</v>
+        <v>6.8852353059987887</v>
       </c>
       <c r="E36" s="3">
         <f t="shared" si="1"/>
-        <v>0.78597938605316697</v>
-      </c>
-      <c r="F36" s="3">
-        <v>2.5289999999999999</v>
+        <v>0.20250692076467025</v>
+      </c>
+      <c r="F36" s="4">
+        <v>2.8853E-2</v>
       </c>
       <c r="G36" s="3">
         <f t="shared" si="2"/>
-        <v>28.129695531830766</v>
+        <v>6.7908016497417947</v>
       </c>
       <c r="H36" s="3">
         <f t="shared" si="3"/>
-        <v>0.82734398623031669</v>
+        <v>0.19972946028652339</v>
       </c>
       <c r="I36" s="4">
-        <v>2.3373000000000001E-2</v>
+        <v>3.0367000000000002E-2</v>
       </c>
       <c r="J36" s="3">
         <f t="shared" si="4"/>
-        <v>6.7435074658794329</v>
+        <v>6.4666249547205839</v>
       </c>
       <c r="K36" s="3">
         <f t="shared" si="5"/>
-        <v>0.19833845487880686</v>
+        <v>0.19019485160942895</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
         <v>35</v>
       </c>
-      <c r="C37" s="3">
-        <v>2.4969999999999999</v>
+      <c r="C37" s="4">
+        <v>2.3685000000000001E-2</v>
       </c>
       <c r="D37" s="3">
         <f t="shared" si="0"/>
-        <v>28.15738886663997</v>
+        <v>7.1962845682921683</v>
       </c>
       <c r="E37" s="3">
         <f t="shared" si="1"/>
-        <v>0.80449682476114204</v>
-      </c>
-      <c r="F37" s="3">
-        <v>2.48</v>
+        <v>0.20560813052263338</v>
+      </c>
+      <c r="F37" s="4">
+        <v>4.0351999999999999E-2</v>
       </c>
       <c r="G37" s="3">
         <f t="shared" si="2"/>
-        <v>28.685483870967744</v>
+        <v>4.8556453211736716</v>
       </c>
       <c r="H37" s="3">
         <f t="shared" si="3"/>
-        <v>0.81958525345622124</v>
+        <v>0.13873272346210491</v>
       </c>
       <c r="I37" s="4">
-        <v>2.7073E-2</v>
+        <v>1.9165999999999999E-2</v>
       </c>
       <c r="J37" s="3">
         <f t="shared" si="4"/>
-        <v>5.821888966867359</v>
+        <v>10.245852029635813</v>
       </c>
       <c r="K37" s="3">
         <f t="shared" si="5"/>
-        <v>0.16633968476763883</v>
+        <v>0.29273862941816609</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
         <v>36</v>
       </c>
-      <c r="C38" s="3">
-        <v>2.4039999999999999</v>
+      <c r="C38" s="4">
+        <v>2.3785000000000001E-2</v>
       </c>
       <c r="D38" s="3">
         <f t="shared" si="0"/>
-        <v>29.246672212978368</v>
+        <v>7.1660290098801767</v>
       </c>
       <c r="E38" s="3">
         <f t="shared" si="1"/>
-        <v>0.8124075614716213</v>
-      </c>
-      <c r="F38" s="3">
-        <v>2.3740000000000001</v>
+        <v>0.19905636138556046</v>
+      </c>
+      <c r="F38" s="4">
+        <v>2.7407999999999998E-2</v>
       </c>
       <c r="G38" s="3">
         <f t="shared" si="2"/>
-        <v>29.966301600673965</v>
+        <v>7.1488251605370694</v>
       </c>
       <c r="H38" s="3">
         <f t="shared" si="3"/>
-        <v>0.83239726668538794</v>
+        <v>0.19857847668158526</v>
       </c>
       <c r="I38" s="4">
-        <v>2.4865000000000002E-2</v>
+        <v>1.7937000000000002E-2</v>
       </c>
       <c r="J38" s="3">
         <f t="shared" si="4"/>
-        <v>6.3388698974462097</v>
+        <v>10.947873111445613</v>
       </c>
       <c r="K38" s="3">
         <f t="shared" si="5"/>
-        <v>0.17607971937350583</v>
+        <v>0.30410758642904478</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="1">
         <v>37</v>
       </c>
-      <c r="C39" s="3">
-        <v>2.3650000000000002</v>
+      <c r="C39" s="4">
+        <v>2.5864000000000002E-2</v>
       </c>
       <c r="D39" s="3">
         <f t="shared" si="0"/>
-        <v>29.728964059196613</v>
+        <v>6.5900092793071448</v>
       </c>
       <c r="E39" s="3">
         <f t="shared" si="1"/>
-        <v>0.80348551511342203</v>
-      </c>
-      <c r="F39" s="3">
-        <v>2.3490000000000002</v>
+        <v>0.17810835890019311</v>
+      </c>
+      <c r="F39" s="4">
+        <v>2.5318E-2</v>
       </c>
       <c r="G39" s="3">
         <f t="shared" si="2"/>
-        <v>30.285227756492123</v>
+        <v>7.7389604234141718</v>
       </c>
       <c r="H39" s="3">
         <f t="shared" si="3"/>
-        <v>0.81851966909438167</v>
+        <v>0.20916109252470735</v>
       </c>
       <c r="I39" s="4">
-        <v>2.3730000000000002</v>
+        <v>2.1950999999999998E-2</v>
       </c>
       <c r="J39" s="3">
         <f t="shared" si="4"/>
-        <v>6.6420564686051412E-2</v>
+        <v>8.9459250148057041</v>
       </c>
       <c r="K39" s="3">
         <f t="shared" si="5"/>
-        <v>1.7951503969203084E-3</v>
+        <v>0.24178175715691091</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" s="1">
         <v>38</v>
       </c>
-      <c r="C40" s="3">
-        <v>2.387</v>
+      <c r="C40" s="4">
+        <v>2.4563000000000001E-2</v>
       </c>
       <c r="D40" s="3">
         <f t="shared" si="0"/>
-        <v>29.454964390448261</v>
+        <v>6.9390546757317919</v>
       </c>
       <c r="E40" s="3">
         <f t="shared" si="1"/>
-        <v>0.77513064185390157</v>
-      </c>
-      <c r="F40" s="3">
-        <v>2.274</v>
+        <v>0.18260670199294191</v>
+      </c>
+      <c r="F40" s="4">
+        <v>3.5625999999999998E-2</v>
       </c>
       <c r="G40" s="3">
         <f t="shared" si="2"/>
-        <v>31.284080914687774</v>
+        <v>5.4997754448997922</v>
       </c>
       <c r="H40" s="3">
         <f t="shared" si="3"/>
-        <v>0.82326528722862558</v>
+        <v>0.14473093276052085</v>
       </c>
       <c r="I40" s="4">
-        <v>2.2949999999999999</v>
+        <v>2.2957999999999999E-2</v>
       </c>
       <c r="J40" s="3">
         <f t="shared" si="4"/>
-        <v>6.8677995642701536E-2</v>
+        <v>8.5535325376774978</v>
       </c>
       <c r="K40" s="3">
         <f t="shared" si="5"/>
-        <v>1.8073156748079351E-3</v>
+        <v>0.2250929615178289</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="1">
         <v>39</v>
       </c>
-      <c r="C41" s="3">
-        <v>2.254</v>
+      <c r="C41" s="4">
+        <v>2.6986E-2</v>
       </c>
       <c r="D41" s="3">
         <f t="shared" si="0"/>
-        <v>31.19299023957409</v>
+        <v>6.3160157118505902</v>
       </c>
       <c r="E41" s="3">
         <f t="shared" si="1"/>
-        <v>0.79982026255318184</v>
-      </c>
-      <c r="F41" s="3">
-        <v>2.2210000000000001</v>
+        <v>0.16194912081668181</v>
+      </c>
+      <c r="F41" s="4">
+        <v>3.0713000000000001E-2</v>
       </c>
       <c r="G41" s="3">
         <f t="shared" si="2"/>
-        <v>32.03061683926159</v>
+        <v>6.3795461205352781</v>
       </c>
       <c r="H41" s="3">
         <f t="shared" si="3"/>
-        <v>0.82129786767337409</v>
+        <v>0.16357810565475073</v>
       </c>
       <c r="I41" s="4">
-        <v>2.262</v>
+        <v>2.2374999999999999E-2</v>
       </c>
       <c r="J41" s="3">
         <f t="shared" si="4"/>
-        <v>6.967992926613617E-2</v>
+        <v>8.7764022346368709</v>
       </c>
       <c r="K41" s="3">
         <f t="shared" si="5"/>
-        <v>1.7866648529778506E-3</v>
+        <v>0.22503595473427873</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
         <v>40</v>
       </c>
-      <c r="C42" s="3">
-        <v>2.2469999999999999</v>
+      <c r="C42" s="4">
+        <v>1.2319999999999999E-2</v>
       </c>
       <c r="D42" s="3">
         <f t="shared" si="0"/>
-        <v>31.290164663996439</v>
+        <v>13.834740259740261</v>
       </c>
       <c r="E42" s="3">
         <f t="shared" si="1"/>
-        <v>0.78225411659991095</v>
-      </c>
-      <c r="F42" s="3">
-        <v>2.27</v>
+        <v>0.34586850649350653</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1.7788999999999999E-2</v>
       </c>
       <c r="G42" s="3">
         <f t="shared" si="2"/>
-        <v>31.33920704845815</v>
+        <v>11.014390915734444</v>
       </c>
       <c r="H42" s="3">
         <f t="shared" si="3"/>
-        <v>0.78348017621145372</v>
+        <v>0.27535977289336111</v>
       </c>
       <c r="I42" s="4">
-        <v>2.198</v>
+        <v>2.7833E-2</v>
       </c>
       <c r="J42" s="3">
         <f t="shared" si="4"/>
-        <v>7.1708826205641493E-2</v>
+        <v>7.0553659325261373</v>
       </c>
       <c r="K42" s="3">
         <f t="shared" si="5"/>
-        <v>1.7927206551410374E-3</v>
+        <v>0.17638414831315344</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="1">
         <v>41</v>
       </c>
-      <c r="C43" s="3">
-        <v>2.1440000000000001</v>
+      <c r="C43" s="4">
+        <v>1.9656E-2</v>
       </c>
       <c r="D43" s="3">
         <f t="shared" si="0"/>
-        <v>32.79337686567164</v>
+        <v>8.6713471713471719</v>
       </c>
       <c r="E43" s="3">
         <f t="shared" si="1"/>
-        <v>0.79983846013833271</v>
-      </c>
-      <c r="F43" s="3">
-        <v>2.0979999999999999</v>
+        <v>0.21149627247188224</v>
+      </c>
+      <c r="F43" s="4">
+        <v>3.8276999999999999E-2</v>
       </c>
       <c r="G43" s="3">
         <f t="shared" si="2"/>
-        <v>33.908484270734036</v>
+        <v>5.1188703398907958</v>
       </c>
       <c r="H43" s="3">
         <f t="shared" si="3"/>
-        <v>0.82703620172522041</v>
+        <v>0.12485049609489746</v>
       </c>
       <c r="I43" s="4">
-        <v>2.101</v>
+        <v>3.7942999999999998E-2</v>
       </c>
       <c r="J43" s="3">
         <f t="shared" si="4"/>
-        <v>7.5019514516896715E-2</v>
+        <v>5.1754473815987136</v>
       </c>
       <c r="K43" s="3">
         <f t="shared" si="5"/>
-        <v>1.829744256509676E-3</v>
+        <v>0.12623042394143205</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="1">
         <v>42</v>
       </c>
-      <c r="C44" s="3">
-        <v>2.1659999999999999</v>
+      <c r="C44" s="4">
+        <v>3.3036000000000003E-2</v>
       </c>
       <c r="D44" s="3">
         <f t="shared" si="0"/>
-        <v>32.460295475530934</v>
+        <v>5.1593413246155704</v>
       </c>
       <c r="E44" s="3">
         <f t="shared" si="1"/>
-        <v>0.77286417798883178</v>
-      </c>
-      <c r="F44" s="3">
-        <v>2.0670000000000002</v>
+        <v>0.12284146010989454</v>
+      </c>
+      <c r="F44" s="4">
+        <v>4.1271000000000002E-2</v>
       </c>
       <c r="G44" s="3">
         <f t="shared" si="2"/>
-        <v>34.41702951136913</v>
+        <v>4.7475224734074768</v>
       </c>
       <c r="H44" s="3">
         <f t="shared" si="3"/>
-        <v>0.81945308360402691</v>
+        <v>0.11303624936684468</v>
       </c>
       <c r="I44" s="4">
-        <v>2.0760000000000001</v>
+        <v>2.256E-2</v>
       </c>
       <c r="J44" s="3">
         <f t="shared" si="4"/>
-        <v>7.5922928709055884E-2</v>
+        <v>8.7044326241134744</v>
       </c>
       <c r="K44" s="3">
         <f t="shared" si="5"/>
-        <v>1.8076887787870448E-3</v>
+        <v>0.20724839581222559</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45" s="1">
         <v>43</v>
       </c>
-      <c r="C45" s="3">
-        <v>2.0790000000000002</v>
+      <c r="C45" s="4">
+        <v>3.7713000000000003E-2</v>
       </c>
       <c r="D45" s="3">
         <f t="shared" si="0"/>
-        <v>33.818662818662816</v>
+        <v>4.5195025587993527</v>
       </c>
       <c r="E45" s="3">
         <f t="shared" si="1"/>
-        <v>0.78648053066657708</v>
-      </c>
-      <c r="F45" s="3">
-        <v>2.0510000000000002</v>
+        <v>0.10510471066975238</v>
+      </c>
+      <c r="F45" s="4">
+        <v>2.2676999999999999E-2</v>
       </c>
       <c r="G45" s="3">
         <f t="shared" si="2"/>
-        <v>34.685519258898097</v>
+        <v>8.6402522379503459</v>
       </c>
       <c r="H45" s="3">
         <f t="shared" si="3"/>
-        <v>0.80663998276507198</v>
+        <v>0.2009360985569848</v>
       </c>
       <c r="I45" s="4">
-        <v>2.0539999999999998</v>
+        <v>2.7215E-2</v>
       </c>
       <c r="J45" s="3">
         <f t="shared" si="4"/>
-        <v>7.6736124634858821E-2</v>
+        <v>7.2155796435789084</v>
       </c>
       <c r="K45" s="3">
         <f t="shared" si="5"/>
-        <v>1.7845610380199726E-3</v>
+        <v>0.16780417775764903</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46" s="1">
         <v>44</v>
       </c>
-      <c r="C46" s="3">
-        <v>2.1309999999999998</v>
+      <c r="C46" s="4">
+        <v>3.5220000000000001E-2</v>
       </c>
       <c r="D46" s="3">
         <f t="shared" si="0"/>
-        <v>32.993430314406382</v>
+        <v>4.8394094264622378</v>
       </c>
       <c r="E46" s="3">
         <f t="shared" si="1"/>
-        <v>0.74985068896378138</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1.9770000000000001</v>
+        <v>0.10998657787414177</v>
+      </c>
+      <c r="F46" s="4">
+        <v>1.9559E-2</v>
       </c>
       <c r="G46" s="3">
         <f t="shared" si="2"/>
-        <v>35.983813859382899</v>
+        <v>10.017638938596043</v>
       </c>
       <c r="H46" s="3">
         <f t="shared" si="3"/>
-        <v>0.81781395134961132</v>
+        <v>0.22767361224081917</v>
       </c>
       <c r="I46" s="4">
-        <v>2.0019999999999998</v>
+        <v>3.2291E-2</v>
       </c>
       <c r="J46" s="3">
         <f t="shared" si="4"/>
-        <v>7.8729270729270745E-2</v>
+        <v>6.0813229692483972</v>
       </c>
       <c r="K46" s="3">
         <f t="shared" si="5"/>
-        <v>1.7893016074834261E-3</v>
+        <v>0.1382118856647363</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47" s="1">
         <v>45</v>
       </c>
-      <c r="C47" s="3">
-        <v>2.0619999999999998</v>
+      <c r="C47" s="4">
+        <v>3.6651999999999997E-2</v>
       </c>
       <c r="D47" s="3">
         <f t="shared" si="0"/>
-        <v>34.097478176527645</v>
+        <v>4.6503328604168948</v>
       </c>
       <c r="E47" s="3">
         <f t="shared" si="1"/>
-        <v>0.75772173725616987</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1.95</v>
+        <v>0.10334073023148654</v>
+      </c>
+      <c r="F47" s="4">
+        <v>2.6824000000000001E-2</v>
       </c>
       <c r="G47" s="3">
         <f t="shared" si="2"/>
-        <v>36.48205128205128</v>
+        <v>7.3044661497166716</v>
       </c>
       <c r="H47" s="3">
         <f t="shared" si="3"/>
-        <v>0.81071225071225073</v>
+        <v>0.16232146999370381</v>
       </c>
       <c r="I47" s="4">
-        <v>1.96</v>
+        <v>2.0112000000000001E-2</v>
       </c>
       <c r="J47" s="3">
         <f t="shared" si="4"/>
-        <v>8.0416326530612245E-2</v>
+        <v>9.7639220365950656</v>
       </c>
       <c r="K47" s="3">
         <f t="shared" si="5"/>
-        <v>1.78702947845805E-3</v>
+        <v>0.21697604525766812</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48" s="1">
         <v>46</v>
       </c>
-      <c r="C48" s="3">
-        <v>2.0790000000000002</v>
+      <c r="C48" s="4">
+        <v>3.4591999999999998E-2</v>
       </c>
       <c r="D48" s="3">
         <f t="shared" si="0"/>
-        <v>33.818662818662816</v>
+        <v>4.9272664199814997</v>
       </c>
       <c r="E48" s="3">
         <f t="shared" si="1"/>
-        <v>0.73518832214484386</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1.9690000000000001</v>
+        <v>0.10711448739090217</v>
+      </c>
+      <c r="F48" s="4">
+        <v>4.3723999999999999E-2</v>
       </c>
       <c r="G48" s="3">
         <f t="shared" si="2"/>
-        <v>36.130015236160489</v>
+        <v>4.4811773854176193</v>
       </c>
       <c r="H48" s="3">
         <f t="shared" si="3"/>
-        <v>0.78543511382957587</v>
+        <v>9.741689968299172E-2</v>
       </c>
       <c r="I48" s="4">
-        <v>1.946</v>
+        <v>2.6544000000000002E-2</v>
       </c>
       <c r="J48" s="3">
         <f t="shared" si="4"/>
-        <v>8.0994861253854064E-2</v>
+        <v>7.3979807112718499</v>
       </c>
       <c r="K48" s="3">
         <f t="shared" si="5"/>
-        <v>1.7607578533446536E-3</v>
+        <v>0.16082566763634457</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B49" s="1">
         <v>47</v>
       </c>
-      <c r="C49" s="3">
-        <v>2.1619999999999999</v>
+      <c r="C49" s="4">
+        <v>3.4701000000000003E-2</v>
       </c>
       <c r="D49" s="3">
         <f t="shared" si="0"/>
-        <v>32.520351526364479</v>
+        <v>4.9117892856113654</v>
       </c>
       <c r="E49" s="3">
         <f t="shared" si="1"/>
-        <v>0.69192237290137193</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1.929</v>
+        <v>0.10450615501300778</v>
+      </c>
+      <c r="F49" s="4">
+        <v>2.8552000000000001E-2</v>
       </c>
       <c r="G49" s="3">
         <f t="shared" si="2"/>
-        <v>36.879212026956971</v>
+        <v>6.8623914261697951</v>
       </c>
       <c r="H49" s="3">
         <f t="shared" si="3"/>
-        <v>0.78466408567993551</v>
+        <v>0.14600832821637863</v>
       </c>
       <c r="I49" s="4">
-        <v>2.0129999999999999</v>
+        <v>3.2746999999999998E-2</v>
       </c>
       <c r="J49" s="3">
         <f t="shared" si="4"/>
-        <v>7.8299056135121711E-2</v>
+        <v>5.9966409136714818</v>
       </c>
       <c r="K49" s="3">
         <f t="shared" si="5"/>
-        <v>1.6659373645770577E-3</v>
+        <v>0.12758810454620173</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B50" s="1">
         <v>48</v>
       </c>
-      <c r="C50" s="3">
-        <v>2.3769999999999998</v>
+      <c r="C50" s="4">
+        <v>4.3519000000000002E-2</v>
       </c>
       <c r="D50" s="3">
         <f t="shared" si="0"/>
-        <v>29.578880942364325</v>
+        <v>3.9165421999586387</v>
       </c>
       <c r="E50" s="3">
         <f t="shared" si="1"/>
-        <v>0.61622668629925681</v>
-      </c>
-      <c r="F50" s="3">
-        <v>1.944</v>
+        <v>8.1594629165804969E-2</v>
+      </c>
+      <c r="F50" s="4">
+        <v>3.2939999999999997E-2</v>
       </c>
       <c r="G50" s="3">
         <f t="shared" si="2"/>
-        <v>36.594650205761319</v>
+        <v>5.948239222829387</v>
       </c>
       <c r="H50" s="3">
         <f t="shared" si="3"/>
-        <v>0.76238854595336081</v>
+        <v>0.12392165047561222</v>
       </c>
       <c r="I50" s="4">
-        <v>1.9419999999999999</v>
+        <v>2.4447E-2</v>
       </c>
       <c r="J50" s="3">
         <f t="shared" si="4"/>
-        <v>8.116168898043255E-2</v>
+        <v>8.0325602323393461</v>
       </c>
       <c r="K50" s="3">
         <f t="shared" si="5"/>
-        <v>1.6908685204256781E-3</v>
+        <v>0.16734500484040304</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C51" s="3">
-        <v>2.4609999999999999</v>
+      <c r="C51" s="4">
+        <v>3.3926999999999999E-2</v>
       </c>
       <c r="D51" s="3">
         <f t="shared" si="0"/>
-        <v>28.569280780170661</v>
+        <v>5.0238453149409033</v>
       </c>
       <c r="E51" s="3"/>
-      <c r="F51" s="3">
-        <v>1.9339999999999999</v>
+      <c r="F51" s="4">
+        <v>2.8021999999999998E-2</v>
       </c>
       <c r="G51" s="3">
         <f t="shared" si="2"/>
-        <v>36.783867631851088</v>
+        <v>6.9921847120119907</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="4">
-        <v>3.8796999999999998E-2</v>
+        <v>3.2432999999999997E-2</v>
       </c>
       <c r="J51" s="3">
         <f t="shared" si="4"/>
-        <v>4.0625821584143109</v>
+        <v>6.0546973761292513</v>
       </c>
       <c r="K51" s="3"/>
     </row>

--- a/speedup_aff_reg.xlsx
+++ b/speedup_aff_reg.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricciwoo/Downloads/GSoC_Dipy/registration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E41B7B-38AF-8F41-BB42-E08E9CF4BE8D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8A6D06-057D-7646-88E4-3494389400FF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{50A14C59-320A-354D-AC1D-B4333EB57C32}"/>
+    <workbookView xWindow="1100" yWindow="460" windowWidth="28800" windowHeight="16240" activeTab="1" xr2:uid="{50A14C59-320A-354D-AC1D-B4333EB57C32}"/>
   </bookViews>
   <sheets>
     <sheet name="speedup_gradient" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>auto</t>
   </si>
@@ -40,6 +41,15 @@
   </si>
   <si>
     <t>guided</t>
+  </si>
+  <si>
+    <t>single call</t>
+  </si>
+  <si>
+    <t>speedup</t>
+  </si>
+  <si>
+    <t>efficiency</t>
   </si>
 </sst>
 </file>
@@ -2275,8 +2285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD61747-5641-6A4F-8443-5DC6BB716242}">
   <dimension ref="B2:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4146,4 +4156,219 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B19E882-5F28-134E-A67C-DCF04D967DE5}">
+  <dimension ref="B2:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.19637199999999999</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.13239000000000001</v>
+      </c>
+      <c r="D4" s="3">
+        <f>C$3/C4</f>
+        <v>1.483284235969484</v>
+      </c>
+      <c r="E4" s="3">
+        <f>D4/$B4</f>
+        <v>0.741642117984742</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.11595900000000001</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" ref="D5:D14" si="0">C$3/C5</f>
+        <v>1.693460619701791</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" ref="E5:E14" si="1">D5/$B5</f>
+        <v>0.56448687323393032</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>9.7317000000000001E-2</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>2.0178591612976149</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.50446479032440372</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>8.5566000000000003E-2</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>2.294976976836594</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.45899539536731881</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
+        <v>7.7815999999999996E-2</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>2.5235427161509203</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.42059045269182005</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4">
+        <v>6.3349000000000003E-2</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>3.0998437228685534</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.44283481755265047</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4">
+        <v>5.9844000000000001E-2</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>3.2813983022525228</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="1"/>
+        <v>0.41017478778156535</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4">
+        <v>5.2814E-2</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>3.7181807853978111</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.3098483987831509</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>24</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2.4178999999999999E-2</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>8.121593117994955</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.33839971324978979</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>36</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1.7937000000000002E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>10.947873111445613</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.30410758642904478</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>48</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2.4447E-2</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>8.0325602323393461</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="1"/>
+        <v>0.16734500484040304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>